--- a/mid term - Nguyen Huu Tu/Test Design Techniques_Nguyen Huu Tu_.xlsx
+++ b/mid term - Nguyen Huu Tu/Test Design Techniques_Nguyen Huu Tu_.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rookies\mid term - Nguyen Huu Tu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRookies\Rookies\mid term - Nguyen Huu Tu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB422666-641A-45FC-897F-6F062A9DE599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DCF2A5-61F6-4D3C-A9CB-68BE8913AAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 1" sheetId="1" r:id="rId1"/>
     <sheet name="Assignment 2" sheetId="2" r:id="rId2"/>
     <sheet name="Assigment 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Assigment 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="718">
   <si>
     <t>ID</t>
   </si>
@@ -1745,6 +1746,598 @@
   </si>
   <si>
     <t>Search a keyword and then check initial sorting box status</t>
+  </si>
+  <si>
+    <t>When full name box is not entered data</t>
+  </si>
+  <si>
+    <t>When the length is 50 characters</t>
+  </si>
+  <si>
+    <t>When the length is over 50 characters</t>
+  </si>
+  <si>
+    <t>When consisting of alphabetic and special character</t>
+  </si>
+  <si>
+    <t>When consisting of numeric and special character</t>
+  </si>
+  <si>
+    <t>When consisting of alphabetic, numeric and special character</t>
+  </si>
+  <si>
+    <t>When consisting of only numeric characters</t>
+  </si>
+  <si>
+    <t>When consisting of only alphabetic characters</t>
+  </si>
+  <si>
+    <t>When consisting of only special characters</t>
+  </si>
+  <si>
+    <t>When consisting of alphanumeric characters</t>
+  </si>
+  <si>
+    <t>When phone number box is not entered data</t>
+  </si>
+  <si>
+    <t>When the length is under 10 numeric characters</t>
+  </si>
+  <si>
+    <t>When the length is 10 numeric characters</t>
+  </si>
+  <si>
+    <t>When the length is over 10 numeric characters</t>
+  </si>
+  <si>
+    <t>When consisting of both numeric and alphabetic characters</t>
+  </si>
+  <si>
+    <t>When consisting of both numeric and special characters</t>
+  </si>
+  <si>
+    <t>When consisting of both special and alphabetic characters</t>
+  </si>
+  <si>
+    <t>When consisting of numeric, special and alphabetic characters</t>
+  </si>
+  <si>
+    <t>When consisting of only alpabetic characters</t>
+  </si>
+  <si>
+    <t>Check with an wrong phone number</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>When address box is not entered data</t>
+  </si>
+  <si>
+    <t>When the length is under 5 characters</t>
+  </si>
+  <si>
+    <t>When the length is 5 characters</t>
+  </si>
+  <si>
+    <t>When the length is more than 5 and less than 350 characters</t>
+  </si>
+  <si>
+    <t>When the length is 350 characters</t>
+  </si>
+  <si>
+    <t>When the length is over 350 characters</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>When clicking into drop button</t>
+  </si>
+  <si>
+    <t>When clicking into this box</t>
+  </si>
+  <si>
+    <t>Check scroll up and down</t>
+  </si>
+  <si>
+    <t>Check the number of provinces</t>
+  </si>
+  <si>
+    <t>Check the order of provinces</t>
+  </si>
+  <si>
+    <t>When selecting a province</t>
+  </si>
+  <si>
+    <t>When not selecting any province</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>When not selecting a province at first</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>When not selecting a district at first</t>
+  </si>
+  <si>
+    <t>When not selecting both province and district at first</t>
+  </si>
+  <si>
+    <t>Check the number of districts</t>
+  </si>
+  <si>
+    <t>Check the order of districts</t>
+  </si>
+  <si>
+    <t>When selecting a district</t>
+  </si>
+  <si>
+    <t>When not selecting any district</t>
+  </si>
+  <si>
+    <t>Check the number of wards</t>
+  </si>
+  <si>
+    <t>Check the order of wards</t>
+  </si>
+  <si>
+    <t>When selecting a ward</t>
+  </si>
+  <si>
+    <t>When not selecting any ward</t>
+  </si>
+  <si>
+    <t>Verify that wards displayed match the chosen district and province</t>
+  </si>
+  <si>
+    <t>Verify that districts displayed match the chosen province</t>
+  </si>
+  <si>
+    <t>Cancel button</t>
+  </si>
+  <si>
+    <t>Save button</t>
+  </si>
+  <si>
+    <t>When clicking into this button</t>
+  </si>
+  <si>
+    <t>Intial status</t>
+  </si>
+  <si>
+    <t>Add a new address</t>
+  </si>
+  <si>
+    <t>Add successfully when filling in all fields with valid input data</t>
+  </si>
+  <si>
+    <t>When not selecting both of them</t>
+  </si>
+  <si>
+    <t>When clicking one of them</t>
+  </si>
+  <si>
+    <t>When the length is under 2 characters</t>
+  </si>
+  <si>
+    <t>When the length is 2 characters</t>
+  </si>
+  <si>
+    <t>When the length is over 2 and under 50 characters</t>
+  </si>
+  <si>
+    <t>Label for delivery</t>
+  </si>
+  <si>
+    <t>Add successfully when just filling in all required fields with valid input data and not selecting label for delivery</t>
+  </si>
+  <si>
+    <t>Fail to add when all are blank</t>
+  </si>
+  <si>
+    <t>Fail to add when all are filled with invalid data</t>
+  </si>
+  <si>
+    <t>Fail to add when one of the required fields is invalid data</t>
+  </si>
+  <si>
+    <t>Verify that a new address is on the top of address book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open "Add new address" screen then check this box's default status </t>
+  </si>
+  <si>
+    <t>There is a placeholder text "First Last"</t>
+  </si>
+  <si>
+    <t>1. Enter valid data for other fields and this field is blank
+2. Click button "Save"</t>
+  </si>
+  <si>
+    <t>Error message 1 " Please enter your Full Name" is displayed</t>
+  </si>
+  <si>
+    <t>Enter "t" into this box</t>
+  </si>
+  <si>
+    <t>Enter "tn" into this box</t>
+  </si>
+  <si>
+    <t>No error message is displayed</t>
+  </si>
+  <si>
+    <t>Enter "tthn34" into this box</t>
+  </si>
+  <si>
+    <t>Error message 2 "The name length should be 2 - 50 characters" is displayed</t>
+  </si>
+  <si>
+    <t>Enter "tthn 345ffv fdhj" into this box</t>
+  </si>
+  <si>
+    <t>Error message "Name should not contain special characters." is displayed</t>
+  </si>
+  <si>
+    <t>Enter "qưedf1234" into this box</t>
+  </si>
+  <si>
+    <t>The box returns to be blank</t>
+  </si>
+  <si>
+    <t>Phone nuber</t>
+  </si>
+  <si>
+    <t>There is a placeholder text "Please enter your phone number"</t>
+  </si>
+  <si>
+    <t>Error message 2: "Please enter your Phone number" is displayed</t>
+  </si>
+  <si>
+    <t>Enter "12345" into this box</t>
+  </si>
+  <si>
+    <t>Error message "Name should contain alphanumeric characters." is displayed</t>
+  </si>
+  <si>
+    <t>Error message 1: "The length of phone number should be 10 characters" is displayed</t>
+  </si>
+  <si>
+    <t>Alphabetic characters are not allowed to be entered</t>
+  </si>
+  <si>
+    <t>Special characters are not allowed to be entered</t>
+  </si>
+  <si>
+    <t>Alphabetic and special characters are not allowed to be entered</t>
+  </si>
+  <si>
+    <t>Only numeric characters are entered</t>
+  </si>
+  <si>
+    <t>1. Copy a text "012562546"
+2. Paste it into this field</t>
+  </si>
+  <si>
+    <t>1. Enter "0360045678" into this field 
+2. Enter valid data for other fields
+3. Click "save"</t>
+  </si>
+  <si>
+    <t>1. Enter "0828702467" into this field 
+2. Enter valid data for other fields
+3. Click "save"</t>
+  </si>
+  <si>
+    <t>A new address is added and then return address book screen</t>
+  </si>
+  <si>
+    <t>There is a placeholder text "Please enter your address"</t>
+  </si>
+  <si>
+    <t>Error message 2: "Please enter your Address" is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter "12a" into this field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter "12abc" into this field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter "12 nguyen trai" into this field </t>
+  </si>
+  <si>
+    <t>Error message 1: "The addresslength should be 5-350 characters." is displayed</t>
+  </si>
+  <si>
+    <t>Enter 350 characters into this box</t>
+  </si>
+  <si>
+    <t>Enter over 350 characters into this box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter "qừgjjkubfd" into this field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter "1234567" into this field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter "!@#$%%^" into this field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter "122345abcád" into this field </t>
+  </si>
+  <si>
+    <t>Error message "Address should not contain special characters." is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter "122345!@#$" into this field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter "aqwerfg!@#$" into this field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter "123aqwerfg!@#$" into this field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter "12nguyentrai" into this field </t>
+  </si>
+  <si>
+    <t>Space is not automatically trimmed</t>
+  </si>
+  <si>
+    <t>When entering from keyboard</t>
+  </si>
+  <si>
+    <t>There is a placeholder text "Please choose your province"</t>
+  </si>
+  <si>
+    <t>There is a placeholder text "Please choose your district"</t>
+  </si>
+  <si>
+    <t>There is a placeholder text "Please enter your ward"</t>
+  </si>
+  <si>
+    <t>Click into the box then enter words from keyboard</t>
+  </si>
+  <si>
+    <t>It is not allow to enter data from keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click drop button and then check </t>
+  </si>
+  <si>
+    <t>Display a provinces list below the box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the box and then check </t>
+  </si>
+  <si>
+    <t>1. Click into the drop button
+2. Scroll up and down to see provinces</t>
+  </si>
+  <si>
+    <t>Scroll bar works and shows province options</t>
+  </si>
+  <si>
+    <t>1. Click into the drop button
+2. Check the number of provinces in this list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are enough all provinces in Vietnam </t>
+  </si>
+  <si>
+    <t>1. Click into the drop button
+2. Check sorting provinces in this list</t>
+  </si>
+  <si>
+    <t>1. Click into the drop button
+2. Select Hanoi in this list</t>
+  </si>
+  <si>
+    <t>Display "Hanoi" in this box</t>
+  </si>
+  <si>
+    <t>Error message: "Please select your Province" is displayed</t>
+  </si>
+  <si>
+    <t>It is not allowed to enter data from keyboard</t>
+  </si>
+  <si>
+    <t>1. Do not select a province
+2. Click into district field</t>
+  </si>
+  <si>
+    <t>Display a districts list below the box</t>
+  </si>
+  <si>
+    <t>Scroll bar works and shows district options</t>
+  </si>
+  <si>
+    <t>All districts in the list are in Hanoi</t>
+  </si>
+  <si>
+    <t>The district list contains all 30 districts of Hanoi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select a province "Hanoi"
+2. Check the order of the list of districts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select a province "Hanoi"
+2. Check the number of districts in the list </t>
+  </si>
+  <si>
+    <t>1. Select a province "Hanoi"
+2. Check districts displayed in the list</t>
+  </si>
+  <si>
+    <t>Districts are sorted in the alphabetic order from top to bottom</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh city is on the top of the list and other provinces are sorted in the alphabetic order from top to bottom</t>
+  </si>
+  <si>
+    <t>Display "Thanh Xuan" in this box</t>
+  </si>
+  <si>
+    <t>Error message: "Please select your District" is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select both province and district
+2. Click drop button and then check </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select both province and district
+2. Click into this box and then check </t>
+  </si>
+  <si>
+    <t>Display a wards list below the box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select a province
+2. Click drop button and then check </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select a province
+2. Click into the box and then check </t>
+  </si>
+  <si>
+    <t>1. Select a province
+2. Click into the drop button
+3. Scroll up and down to see districts</t>
+  </si>
+  <si>
+    <t>1. Select both province and district
+2. Click into the drop button
+3. Scroll up and down to see districts</t>
+  </si>
+  <si>
+    <t>Scroll bar works and shows ward options</t>
+  </si>
+  <si>
+    <t>1. Select a province "Hanoi" and district "Thanh Xuan"
+2. Check districts displayed in the list</t>
+  </si>
+  <si>
+    <t>All ward in the list are in Thanh Xuan, Hanoi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select a province "Hanoi" and district "Thanh Xuan"
+2. Check the number of districts in the list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select a province "Hanoi" and district "Thanh Xuan"
+2. Check the order of the list of districts </t>
+  </si>
+  <si>
+    <t>The district list contains all 11 wards of Thanh Xuan Hanoi</t>
+  </si>
+  <si>
+    <t>Wards are sorted in the alphabetic order from top to bottom</t>
+  </si>
+  <si>
+    <t>1. Select "Hanoi" in province field and "Thanh Xuan" in district field
+2. Click into this box
+3. Select "Thanh Xuan Nam" in this field</t>
+  </si>
+  <si>
+    <t>Display "Thanh Xuan Nam" in this box</t>
+  </si>
+  <si>
+    <t>Error message: "Please select your Ward" is displayed</t>
+  </si>
+  <si>
+    <t>1. Select Hanoi in province field
+2. Click into this box
+3. Select "Thanh Xuan" in this field</t>
+  </si>
+  <si>
+    <t>1. Do not select a province 
+2. Click into this field</t>
+  </si>
+  <si>
+    <t>1. Select province but do not select district
+2. Click into this field</t>
+  </si>
+  <si>
+    <t>1. Do not select province and district
+2. Click into this field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open "Add new address" screen then check this button's default status </t>
+  </si>
+  <si>
+    <t>It is visible and enable</t>
+  </si>
+  <si>
+    <t>It returns "Add new address" screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open "Add new address" screen then check these buttons' default status </t>
+  </si>
+  <si>
+    <t>They are unchecked</t>
+  </si>
+  <si>
+    <t>1. Enter other fields with valid data but not select this fields
+2. Click "Save"</t>
+  </si>
+  <si>
+    <t>Click "Office" button</t>
+  </si>
+  <si>
+    <t>"Office" button changes color</t>
+  </si>
+  <si>
+    <t>When selecting both of them</t>
+  </si>
+  <si>
+    <t>Click "Office" button and then "Home" button</t>
+  </si>
+  <si>
+    <t>"Home" button changes color and It is not allowed to select 2 options at the same time</t>
+  </si>
+  <si>
+    <t>1. Enter valid data for all fields
+2. click button "Save"</t>
+  </si>
+  <si>
+    <t>1. Enter valid data for only mandatory fields
+2. click button "Save"</t>
+  </si>
+  <si>
+    <t>Click button "Save"</t>
+  </si>
+  <si>
+    <t>Error messages "Mandatory Field" are displayed below required fields</t>
+  </si>
+  <si>
+    <t>1. Enter invalid data for all fields
+2. click button "Save"</t>
+  </si>
+  <si>
+    <t>1. Enter invalid data for all fields, except "Full name" fields 
+2. click button "Save"</t>
+  </si>
+  <si>
+    <t>Error message is displayed under this field</t>
+  </si>
+  <si>
+    <t>Error messages are displayed below all fields</t>
+  </si>
+  <si>
+    <t>1. Add 2 addresses first, then click "add new address"
+2. Enter valid data for all fields
+3. Click "Save"
+4.Check list of addresses on "Address book" screen</t>
+  </si>
+  <si>
+    <t>The newest added address is on the top of the list</t>
   </si>
 </sst>
 </file>
@@ -1938,7 +2531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2054,6 +2647,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2084,6 +2680,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2365,17 +2967,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -2410,17 +3012,17 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -2485,17 +3087,17 @@
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2560,17 +3162,17 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2635,17 +3237,17 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -2680,17 +3282,17 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -2755,17 +3357,17 @@
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2830,17 +3432,17 @@
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -2905,17 +3507,17 @@
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -2995,17 +3597,17 @@
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="47"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -3025,17 +3627,17 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -3160,17 +3762,17 @@
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="44"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -3265,17 +3867,17 @@
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="47"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -3295,17 +3897,17 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -3370,17 +3972,17 @@
       <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="44"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -6249,8 +6851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E628FE71-5CB0-4D7A-B405-94ABEF81DAA5}">
   <dimension ref="A1:Z129"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView topLeftCell="A120" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:XFD129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6317,17 +6919,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -6348,16 +6950,16 @@
     </row>
     <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="22"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -6723,17 +7325,17 @@
       <c r="Z20"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="51"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
@@ -6817,17 +7419,17 @@
       <c r="Z25"/>
     </row>
     <row r="26" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
       <c r="J26" s="22"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
@@ -7078,17 +7680,17 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="50"/>
       <c r="J41" s="22"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -7469,17 +8071,17 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="49"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="50"/>
       <c r="J63" s="22"/>
       <c r="K63" s="19"/>
       <c r="L63" s="19"/>
@@ -7813,17 +8415,17 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="B85" s="48"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="49"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="50"/>
       <c r="J85" s="22"/>
       <c r="K85" s="19"/>
       <c r="L85" s="19"/>
@@ -7902,17 +8504,17 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="B90" s="48"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="49"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="50"/>
       <c r="J90" s="22"/>
       <c r="K90" s="19"/>
       <c r="L90" s="19"/>
@@ -8158,17 +8760,17 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="48"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="49"/>
+      <c r="B106" s="49"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="50"/>
       <c r="J106" s="22"/>
       <c r="K106" s="19"/>
       <c r="L106" s="19"/>
@@ -8217,17 +8819,17 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A109" s="47" t="s">
+      <c r="A109" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B109" s="48"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="49"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="49"/>
+      <c r="I109" s="50"/>
       <c r="J109" s="22"/>
       <c r="K109" s="19"/>
       <c r="L109" s="19"/>
@@ -8276,17 +8878,17 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A112" s="47" t="s">
+      <c r="A112" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="B112" s="48"/>
-      <c r="C112" s="48"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="48"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="48"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="49"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="49"/>
+      <c r="I112" s="50"/>
       <c r="J112" s="22"/>
       <c r="K112" s="19"/>
       <c r="L112" s="19"/>
@@ -8452,17 +9054,17 @@
       </c>
     </row>
     <row r="121" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="44" t="s">
+      <c r="A121" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="B121" s="44"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="44"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="44"/>
-      <c r="I121" s="50"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="51"/>
       <c r="J121" s="21"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -8640,7 +9242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A77E4B5-8E5D-4CB5-8500-E7ED57A37077}">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -8699,17 +9301,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -8745,17 +9347,17 @@
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="21"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -8976,17 +9578,17 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="45" t="s">
         <v>518</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="50"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="21"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -9050,17 +9652,17 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="45" t="s">
         <v>525</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="50"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="51"/>
       <c r="J21" s="21"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -9154,17 +9756,17 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="45" t="s">
         <v>532</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
       <c r="J27" s="21"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -9280,17 +9882,17 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="45" t="s">
         <v>476</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="47"/>
       <c r="J33" s="21"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -9574,4 +10176,2018 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DED832-995C-42D4-A46B-4BE115A850FA}">
+  <dimension ref="A1:Z108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" style="10" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+    </row>
+    <row r="4" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <f t="shared" ref="A5:A19" ca="1" si="0">IF(OFFSET(A5,-1,0) ="",OFFSET(A5,-2,0)+1,OFFSET(A5,-1,0)+1 )</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <f ca="1">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
+        <v>614</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+    </row>
+    <row r="22" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>1</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <f ca="1">IF(OFFSET(A23,-1,0) ="",OFFSET(A23,-2,0)+1,OFFSET(A23,-1,0)+1 )</f>
+        <v>2</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <f t="shared" ref="A24:A35" ca="1" si="1">IF(OFFSET(A24,-1,0) ="",OFFSET(A24,-2,0)+1,OFFSET(A24,-1,0)+1 )</f>
+        <v>3</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:26" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>6</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="J28" s="22"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+    </row>
+    <row r="29" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="J29" s="22"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+    </row>
+    <row r="30" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="J30" s="22"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+    </row>
+    <row r="31" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="J31" s="27"/>
+    </row>
+    <row r="32" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="J32" s="27"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="J33" s="27"/>
+    </row>
+    <row r="34" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="J34" s="27"/>
+    </row>
+    <row r="35" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="J35" s="27"/>
+    </row>
+    <row r="36" spans="1:26" s="20" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <f ca="1">IF(OFFSET(A36,-1,0) ="",OFFSET(A36,-2,0)+1,OFFSET(A36,-1,0)+1 )</f>
+        <v>15</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36" s="28"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+    </row>
+    <row r="37" spans="1:26" s="20" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <f ca="1">IF(OFFSET(A37,-1,0) ="",OFFSET(A37,-2,0)+1,OFFSET(A37,-1,0)+1 )</f>
+        <v>16</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37" s="28"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+    </row>
+    <row r="38" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="41" t="s">
+        <v>554</v>
+      </c>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+    </row>
+    <row r="39" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>17</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="J39" s="23"/>
+    </row>
+    <row r="40" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <f ca="1">IF(OFFSET(A40,-1,0) ="",OFFSET(A40,-2,0)+1,OFFSET(A40,-1,0)+1 )</f>
+        <v>18</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <f t="shared" ref="A41:A54" ca="1" si="2">IF(OFFSET(A41,-1,0) ="",OFFSET(A41,-2,0)+1,OFFSET(A41,-1,0)+1 )</f>
+        <v>19</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="25"/>
+    </row>
+    <row r="49" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" s="20" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54" s="28"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+    </row>
+    <row r="55" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="41" t="s">
+        <v>561</v>
+      </c>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="19"/>
+    </row>
+    <row r="56" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>33</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <f t="shared" ref="A57:A64" ca="1" si="3">IF(OFFSET(A57,-1,0) ="",OFFSET(A57,-2,0)+1,OFFSET(A57,-1,0)+1 )</f>
+        <v>34</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="41" t="s">
+        <v>569</v>
+      </c>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="19"/>
+      <c r="X65" s="19"/>
+      <c r="Y65" s="19"/>
+      <c r="Z65" s="19"/>
+    </row>
+    <row r="66" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>42</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <f t="shared" ref="A67:A76" ca="1" si="4">IF(OFFSET(A67,-1,0) ="",OFFSET(A67,-2,0)+1,OFFSET(A67,-1,0)+1 )</f>
+        <v>43</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="29"/>
+      <c r="B77" s="53" t="s">
+        <v>571</v>
+      </c>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="19"/>
+      <c r="W77" s="19"/>
+      <c r="X77" s="19"/>
+      <c r="Y77" s="19"/>
+      <c r="Z77" s="19"/>
+    </row>
+    <row r="78" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <f ca="1">IF(OFFSET(A78,-1,0) ="",OFFSET(A78,-2,0)+1,OFFSET(A78,-1,0)+1 )</f>
+        <v>53</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <f t="shared" ref="A79:A90" ca="1" si="5">IF(OFFSET(A79,-1,0) ="",OFFSET(A79,-2,0)+1,OFFSET(A79,-1,0)+1 )</f>
+        <v>54</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="29"/>
+      <c r="B91" s="53" t="s">
+        <v>584</v>
+      </c>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="19"/>
+      <c r="T91" s="19"/>
+      <c r="U91" s="19"/>
+      <c r="V91" s="19"/>
+      <c r="W91" s="19"/>
+      <c r="X91" s="19"/>
+      <c r="Y91" s="19"/>
+      <c r="Z91" s="19"/>
+    </row>
+    <row r="92" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>66</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="29"/>
+      <c r="B93" s="53" t="s">
+        <v>585</v>
+      </c>
+      <c r="C93" s="53"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="53"/>
+      <c r="I93" s="54"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="19"/>
+      <c r="T93" s="19"/>
+      <c r="U93" s="19"/>
+      <c r="V93" s="19"/>
+      <c r="W93" s="19"/>
+      <c r="X93" s="19"/>
+      <c r="Y93" s="19"/>
+      <c r="Z93" s="19"/>
+    </row>
+    <row r="94" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>67</v>
+      </c>
+      <c r="B94" t="s">
+        <v>587</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="29"/>
+      <c r="B95" s="53" t="s">
+        <v>595</v>
+      </c>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="19"/>
+      <c r="S95" s="19"/>
+      <c r="T95" s="19"/>
+      <c r="U95" s="19"/>
+      <c r="V95" s="19"/>
+      <c r="W95" s="19"/>
+      <c r="X95" s="19"/>
+      <c r="Y95" s="19"/>
+      <c r="Z95" s="19"/>
+    </row>
+    <row r="96" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <f ca="1">IF(OFFSET(A96,-1,0) ="",OFFSET(A96,-2,0)+1,OFFSET(A96,-1,0)+1 )</f>
+        <v>68</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A97" s="10">
+        <f t="shared" ref="A97:A99" ca="1" si="6">IF(OFFSET(A97,-1,0) ="",OFFSET(A97,-2,0)+1,OFFSET(A97,-1,0)+1 )</f>
+        <v>69</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A99" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A100" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="45"/>
+      <c r="I100" s="51"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
+    </row>
+    <row r="101" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="29"/>
+      <c r="B101" s="53" t="s">
+        <v>588</v>
+      </c>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
+      <c r="T101" s="19"/>
+      <c r="U101" s="19"/>
+      <c r="V101" s="19"/>
+      <c r="W101" s="19"/>
+      <c r="X101" s="19"/>
+      <c r="Y101" s="19"/>
+      <c r="Z101" s="19"/>
+    </row>
+    <row r="102" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A102" s="10">
+        <v>72</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="J102" s="23"/>
+    </row>
+    <row r="103" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A103" s="10">
+        <f t="shared" ref="A103:A108" ca="1" si="7">IF(OFFSET(A103,-1,0) ="",OFFSET(A103,-2,0)+1,OFFSET(A103,-1,0)+1 )</f>
+        <v>73</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="J103" s="23"/>
+    </row>
+    <row r="104" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A104" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="E104" s="4"/>
+      <c r="J104" s="23"/>
+    </row>
+    <row r="105" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A105" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="E105" s="4"/>
+      <c r="J105" s="23"/>
+    </row>
+    <row r="106" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A106" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>713</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="J106" s="23"/>
+    </row>
+    <row r="107" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A107" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="J107" s="23"/>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A108" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>699</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="B91:I91"/>
+    <mergeCell ref="B93:I93"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="B95:I95"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mid term - Nguyen Huu Tu/Test Design Techniques_Nguyen Huu Tu_.xlsx
+++ b/mid term - Nguyen Huu Tu/Test Design Techniques_Nguyen Huu Tu_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRookies\Rookies\mid term - Nguyen Huu Tu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DCF2A5-61F6-4D3C-A9CB-68BE8913AAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B85CEF8-7D07-45A6-B9D1-E9FD2537D1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="728">
   <si>
     <t>ID</t>
   </si>
@@ -1904,9 +1904,6 @@
     <t>Save button</t>
   </si>
   <si>
-    <t>When clicking into this button</t>
-  </si>
-  <si>
     <t>Intial status</t>
   </si>
   <si>
@@ -2338,6 +2335,47 @@
   </si>
   <si>
     <t>The newest added address is on the top of the list</t>
+  </si>
+  <si>
+    <t>When clicking into "cancel" button</t>
+  </si>
+  <si>
+    <t>Edit an address</t>
+  </si>
+  <si>
+    <t>Edit successfully when changing all fields</t>
+  </si>
+  <si>
+    <t>Edit successfully when changing a field</t>
+  </si>
+  <si>
+    <t>1. Add an new address successfully
+2. Click "edit" text of this address on "address book" screen
+3. Change valid data in all fields
+4. Click "Save"</t>
+  </si>
+  <si>
+    <t>1. Add an new address successfully
+2. Click "edit" text of this address on "address book" screen
+3. Change valid data in a field
+4. Click "Save"</t>
+  </si>
+  <si>
+    <t>Edit successfully when there is no chang in all fields</t>
+  </si>
+  <si>
+    <t>1. Add an new address successfully
+2. Click "edit" text of this address on "address book" screen
+4. Click "Save"</t>
+  </si>
+  <si>
+    <t>Return "address book" screen with the updated address</t>
+  </si>
+  <si>
+    <t>Return "address book" screen with the remained address</t>
+  </si>
+  <si>
+    <t>Return "address book" screen and the new address is added on this screen</t>
   </si>
 </sst>
 </file>
@@ -2650,6 +2688,12 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2669,9 +2713,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2681,11 +2722,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2967,17 +3005,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -3012,17 +3050,17 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -3087,17 +3125,17 @@
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -3162,17 +3200,17 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -3237,17 +3275,17 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -3282,17 +3320,17 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -3357,17 +3395,17 @@
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -3432,17 +3470,17 @@
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -3507,17 +3545,17 @@
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -3597,17 +3635,17 @@
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -3627,17 +3665,17 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -3762,17 +3800,17 @@
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="44"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="46"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -3867,17 +3905,17 @@
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="47"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="49"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -3897,17 +3935,17 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="44"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="46"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -3972,17 +4010,17 @@
       <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="44"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="46"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -6919,17 +6957,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -6950,16 +6988,16 @@
     </row>
     <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="22"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -7325,17 +7363,17 @@
       <c r="Z20"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="52"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="53"/>
     </row>
     <row r="22" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
@@ -7419,17 +7457,17 @@
       <c r="Z25"/>
     </row>
     <row r="26" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
       <c r="J26" s="22"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
@@ -7680,17 +7718,17 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="52"/>
       <c r="J41" s="22"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -8071,17 +8109,17 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="50"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="52"/>
       <c r="J63" s="22"/>
       <c r="K63" s="19"/>
       <c r="L63" s="19"/>
@@ -8415,17 +8453,17 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="48" t="s">
+      <c r="A85" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="50"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="52"/>
       <c r="J85" s="22"/>
       <c r="K85" s="19"/>
       <c r="L85" s="19"/>
@@ -8504,17 +8542,17 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="48" t="s">
+      <c r="A90" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
-      <c r="I90" s="50"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="52"/>
       <c r="J90" s="22"/>
       <c r="K90" s="19"/>
       <c r="L90" s="19"/>
@@ -8760,17 +8798,17 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="48" t="s">
+      <c r="A106" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="49"/>
-      <c r="H106" s="49"/>
-      <c r="I106" s="50"/>
+      <c r="B106" s="51"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="51"/>
+      <c r="H106" s="51"/>
+      <c r="I106" s="52"/>
       <c r="J106" s="22"/>
       <c r="K106" s="19"/>
       <c r="L106" s="19"/>
@@ -8819,17 +8857,17 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A109" s="48" t="s">
+      <c r="A109" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="B109" s="49"/>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="49"/>
-      <c r="G109" s="49"/>
-      <c r="H109" s="49"/>
-      <c r="I109" s="50"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="51"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="51"/>
+      <c r="I109" s="52"/>
       <c r="J109" s="22"/>
       <c r="K109" s="19"/>
       <c r="L109" s="19"/>
@@ -8878,17 +8916,17 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A112" s="48" t="s">
+      <c r="A112" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="B112" s="49"/>
-      <c r="C112" s="49"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="49"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="49"/>
-      <c r="I112" s="50"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="52"/>
       <c r="J112" s="22"/>
       <c r="K112" s="19"/>
       <c r="L112" s="19"/>
@@ -9054,17 +9092,17 @@
       </c>
     </row>
     <row r="121" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="45" t="s">
+      <c r="A121" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="B121" s="45"/>
-      <c r="C121" s="45"/>
-      <c r="D121" s="45"/>
-      <c r="E121" s="45"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="45"/>
-      <c r="I121" s="51"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="47"/>
+      <c r="D121" s="47"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="47"/>
+      <c r="I121" s="56"/>
       <c r="J121" s="21"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -9219,11 +9257,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="A109:I109"/>
     <mergeCell ref="A112:I112"/>
     <mergeCell ref="A121:I121"/>
     <mergeCell ref="A41:I41"/>
@@ -9231,6 +9264,11 @@
     <mergeCell ref="A85:I85"/>
     <mergeCell ref="A90:I90"/>
     <mergeCell ref="A106:I106"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="A109:I109"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9301,17 +9339,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -9347,17 +9385,17 @@
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="21"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -9578,17 +9616,17 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>518</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="51"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="21"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -9652,17 +9690,17 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>525</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="51"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="21"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -9756,17 +9794,17 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="47" t="s">
         <v>532</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
       <c r="J27" s="21"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -9882,17 +9920,17 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="47" t="s">
         <v>476</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
       <c r="J33" s="21"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -10180,17 +10218,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DED832-995C-42D4-A46B-4BE115A850FA}">
-  <dimension ref="A1:Z108"/>
+  <dimension ref="A1:Z112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
       <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="10" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" style="23" customWidth="1"/>
     <col min="4" max="4" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10241,17 +10279,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -10271,17 +10309,17 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="22"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -10308,10 +10346,10 @@
         <v>222</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>601</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>602</v>
       </c>
       <c r="E4" s="4"/>
       <c r="J4" s="23"/>
@@ -10325,10 +10363,10 @@
         <v>534</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>604</v>
       </c>
       <c r="E5" s="4"/>
       <c r="J5" s="23"/>
@@ -10339,13 +10377,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E6" s="4"/>
       <c r="J6" s="23"/>
@@ -10356,13 +10394,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>607</v>
       </c>
       <c r="E7" s="4"/>
       <c r="J7" s="23"/>
@@ -10373,13 +10411,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E8" s="4"/>
       <c r="J8" s="23"/>
@@ -10396,7 +10434,7 @@
         <v>337</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E9" s="4"/>
       <c r="J9" s="23"/>
@@ -10413,7 +10451,7 @@
         <v>338</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E10" s="6"/>
       <c r="J10" s="23"/>
@@ -10427,10 +10465,10 @@
         <v>179</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E11" s="6"/>
       <c r="J11" s="23"/>
@@ -10447,7 +10485,7 @@
         <v>332</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E12" s="4"/>
       <c r="J12" s="23"/>
@@ -10461,10 +10499,10 @@
         <v>540</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>618</v>
       </c>
       <c r="E13" s="4"/>
       <c r="J13" s="23"/>
@@ -10481,7 +10519,7 @@
         <v>339</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E14" s="4"/>
       <c r="J14" s="23"/>
@@ -10495,10 +10533,10 @@
         <v>543</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E15" s="4"/>
       <c r="J15" s="23"/>
@@ -10515,7 +10553,7 @@
         <v>342</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E16" s="4"/>
       <c r="J16" s="23"/>
@@ -10532,7 +10570,7 @@
         <v>343</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E17" s="4"/>
       <c r="J17" s="23"/>
@@ -10549,7 +10587,7 @@
         <v>345</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E18" s="4"/>
       <c r="J18" s="23"/>
@@ -10566,7 +10604,7 @@
         <v>297</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E19" s="4"/>
       <c r="J19" s="23"/>
@@ -10583,23 +10621,23 @@
         <v>300</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E20" s="4"/>
       <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
-        <v>614</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
+        <v>613</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
       <c r="J21" s="22"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
@@ -10626,10 +10664,10 @@
         <v>165</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E22" s="4"/>
       <c r="J22" s="23"/>
@@ -10643,10 +10681,10 @@
         <v>544</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E23" s="4"/>
       <c r="J23" s="23"/>
@@ -10664,7 +10702,7 @@
         <v>380</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E24" s="4"/>
       <c r="J24" s="23"/>
@@ -10681,7 +10719,7 @@
         <v>381</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E25" s="4"/>
       <c r="J25" s="24"/>
@@ -10698,7 +10736,7 @@
         <v>382</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E26" s="4"/>
       <c r="J26" s="23"/>
@@ -10714,7 +10752,7 @@
         <v>241</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E27" s="4"/>
       <c r="J27" s="23"/>
@@ -10731,7 +10769,7 @@
         <v>240</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E28" s="4"/>
       <c r="J28" s="22"/>
@@ -10752,7 +10790,7 @@
         <v>242</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E29" s="4"/>
       <c r="J29" s="22"/>
@@ -10773,7 +10811,7 @@
         <v>243</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E30" s="4"/>
       <c r="J30" s="22"/>
@@ -10794,7 +10832,7 @@
         <v>244</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E31" s="4"/>
       <c r="J31" s="27"/>
@@ -10811,7 +10849,7 @@
         <v>245</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E32" s="4"/>
       <c r="J32" s="27"/>
@@ -10828,7 +10866,7 @@
         <v>263</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E33" s="4"/>
       <c r="J33" s="27"/>
@@ -10842,10 +10880,10 @@
         <v>180</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E34" s="4"/>
       <c r="J34" s="27"/>
@@ -10859,10 +10897,10 @@
         <v>553</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E35" s="4"/>
       <c r="J35" s="27"/>
@@ -10876,10 +10914,10 @@
         <v>141</v>
       </c>
       <c r="C36" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>626</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>627</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36"/>
@@ -10916,7 +10954,7 @@
         <v>409</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37"/>
@@ -10945,14 +10983,14 @@
       <c r="A38" s="41" t="s">
         <v>554</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="56"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="43"/>
       <c r="J38" s="22"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
@@ -10979,10 +11017,10 @@
         <v>165</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E39" s="4"/>
       <c r="J39" s="23"/>
@@ -10996,10 +11034,10 @@
         <v>555</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E40" s="4"/>
       <c r="J40" s="23"/>
@@ -11014,10 +11052,10 @@
         <v>556</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
@@ -11029,10 +11067,10 @@
         <v>557</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11044,10 +11082,10 @@
         <v>558</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
@@ -11059,10 +11097,10 @@
         <v>559</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11074,10 +11112,10 @@
         <v>560</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11089,10 +11127,10 @@
         <v>552</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11104,10 +11142,10 @@
         <v>540</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11119,10 +11157,10 @@
         <v>542</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E48" s="4"/>
       <c r="J48" s="23"/>
@@ -11137,10 +11175,10 @@
         <v>548</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11152,10 +11190,10 @@
         <v>549</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11167,10 +11205,10 @@
         <v>550</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11182,10 +11220,10 @@
         <v>551</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
@@ -11197,10 +11235,10 @@
         <v>179</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="54" spans="1:26" s="20" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11244,14 +11282,14 @@
       <c r="A55" s="41" t="s">
         <v>561</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="56"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="43"/>
       <c r="J55" s="22"/>
       <c r="K55" s="19"/>
       <c r="L55" s="19"/>
@@ -11278,10 +11316,10 @@
         <v>165</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11290,13 +11328,13 @@
         <v>34</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
@@ -11308,10 +11346,10 @@
         <v>562</v>
       </c>
       <c r="C58" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="D58" s="26" t="s">
         <v>652</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
@@ -11323,10 +11361,10 @@
         <v>563</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11338,10 +11376,10 @@
         <v>564</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>655</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11353,10 +11391,10 @@
         <v>565</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11368,10 +11406,10 @@
         <v>566</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11383,10 +11421,10 @@
         <v>567</v>
       </c>
       <c r="C63" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="D63" s="26" t="s">
         <v>660</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11398,24 +11436,24 @@
         <v>568</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>569</v>
       </c>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="56"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="43"/>
       <c r="J65" s="22"/>
       <c r="K65" s="19"/>
       <c r="L65" s="19"/>
@@ -11442,10 +11480,10 @@
         <v>165</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11454,13 +11492,13 @@
         <v>43</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11472,7 +11510,7 @@
         <v>570</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D68" s="26" t="s">
         <v>484</v>
@@ -11487,10 +11525,10 @@
         <v>562</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11502,10 +11540,10 @@
         <v>563</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11517,10 +11555,10 @@
         <v>564</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11532,10 +11570,10 @@
         <v>583</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11547,10 +11585,10 @@
         <v>574</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11562,10 +11600,10 @@
         <v>575</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11577,10 +11615,10 @@
         <v>576</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11592,24 +11630,24 @@
         <v>577</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="29"/>
-      <c r="B77" s="53" t="s">
+      <c r="B77" s="54" t="s">
         <v>571</v>
       </c>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="55"/>
       <c r="J77" s="22"/>
       <c r="K77" s="19"/>
       <c r="L77" s="19"/>
@@ -11637,10 +11675,10 @@
         <v>165</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11649,13 +11687,13 @@
         <v>54</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C79" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="D79" s="26" t="s">
         <v>650</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11667,7 +11705,7 @@
         <v>570</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D80" s="26" t="s">
         <v>484</v>
@@ -11682,7 +11720,7 @@
         <v>572</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D81" s="26" t="s">
         <v>484</v>
@@ -11697,7 +11735,7 @@
         <v>573</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D82" s="26" t="s">
         <v>484</v>
@@ -11712,10 +11750,10 @@
         <v>562</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -11727,10 +11765,10 @@
         <v>563</v>
       </c>
       <c r="C84" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="D84" s="26" t="s">
         <v>677</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11742,10 +11780,10 @@
         <v>564</v>
       </c>
       <c r="C85" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D85" s="26" t="s">
         <v>682</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11757,10 +11795,10 @@
         <v>582</v>
       </c>
       <c r="C86" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="D86" s="26" t="s">
         <v>684</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
@@ -11772,10 +11810,10 @@
         <v>578</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -11787,10 +11825,10 @@
         <v>579</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -11802,10 +11840,10 @@
         <v>580</v>
       </c>
       <c r="C89" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="D89" s="26" t="s">
         <v>690</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11817,24 +11855,24 @@
         <v>581</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="29"/>
-      <c r="B91" s="53" t="s">
+      <c r="B91" s="54" t="s">
         <v>584</v>
       </c>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="55"/>
       <c r="J91" s="22"/>
       <c r="K91" s="19"/>
       <c r="L91" s="19"/>
@@ -11861,24 +11899,24 @@
         <v>165</v>
       </c>
       <c r="C92" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="D92" s="26" t="s">
         <v>697</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="29"/>
-      <c r="B93" s="53" t="s">
+      <c r="B93" s="54" t="s">
         <v>585</v>
       </c>
-      <c r="C93" s="53"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="54"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="55"/>
       <c r="J93" s="22"/>
       <c r="K93" s="19"/>
       <c r="L93" s="19"/>
@@ -11902,27 +11940,27 @@
         <v>67</v>
       </c>
       <c r="B94" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C94" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="D94" s="26" t="s">
         <v>697</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="29"/>
-      <c r="B95" s="53" t="s">
-        <v>595</v>
-      </c>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="54"/>
+      <c r="B95" s="54" t="s">
+        <v>594</v>
+      </c>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="55"/>
       <c r="J95" s="22"/>
       <c r="K95" s="19"/>
       <c r="L95" s="19"/>
@@ -11947,13 +11985,13 @@
         <v>68</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C96" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="D96" s="26" t="s">
         <v>700</v>
-      </c>
-      <c r="D96" s="26" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11962,13 +12000,13 @@
         <v>69</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
@@ -11977,13 +12015,13 @@
         <v>70</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C98" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D98" s="26" t="s">
         <v>703</v>
-      </c>
-      <c r="D98" s="26" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
@@ -11992,27 +12030,27 @@
         <v>71</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="D99" s="26" t="s">
         <v>706</v>
       </c>
-      <c r="D99" s="26" t="s">
-        <v>707</v>
-      </c>
     </row>
     <row r="100" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A100" s="45" t="s">
+      <c r="A100" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="51"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="47"/>
+      <c r="I100" s="56"/>
       <c r="J100" s="21"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -12033,16 +12071,16 @@
     </row>
     <row r="101" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="29"/>
-      <c r="B101" s="53" t="s">
-        <v>588</v>
-      </c>
-      <c r="C101" s="53"/>
-      <c r="D101" s="53"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="54"/>
+      <c r="B101" s="54" t="s">
+        <v>587</v>
+      </c>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="55"/>
       <c r="J101" s="22"/>
       <c r="K101" s="19"/>
       <c r="L101" s="19"/>
@@ -12066,13 +12104,13 @@
         <v>72</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>627</v>
+        <v>727</v>
       </c>
       <c r="E102" s="4"/>
       <c r="J102" s="23"/>
@@ -12083,13 +12121,13 @@
         <v>73</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>627</v>
+        <v>727</v>
       </c>
       <c r="E103" s="4"/>
       <c r="J103" s="23"/>
@@ -12100,13 +12138,13 @@
         <v>74</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C104" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>710</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>711</v>
       </c>
       <c r="E104" s="4"/>
       <c r="J104" s="23"/>
@@ -12117,13 +12155,13 @@
         <v>75</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E105" s="4"/>
       <c r="J105" s="23"/>
@@ -12134,13 +12172,13 @@
         <v>76</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C106" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>713</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>714</v>
       </c>
       <c r="E106" s="4"/>
       <c r="J106" s="23"/>
@@ -12151,42 +12189,120 @@
         <v>77</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C107" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>716</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>717</v>
       </c>
       <c r="E107" s="4"/>
       <c r="J107" s="23"/>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(OFFSET(A108,-1,0) ="",OFFSET(A108,-2,0)+1,OFFSET(A108,-1,0)+1 )</f>
         <v>78</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>586</v>
+        <v>717</v>
       </c>
       <c r="C108" s="23" t="s">
         <v>348</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>699</v>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A109" s="29"/>
+      <c r="B109" s="54" t="s">
+        <v>718</v>
+      </c>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="55"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="19"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="P109" s="19"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="19"/>
+      <c r="T109" s="19"/>
+      <c r="U109" s="19"/>
+      <c r="V109" s="19"/>
+      <c r="W109" s="19"/>
+      <c r="X109" s="19"/>
+      <c r="Y109" s="19"/>
+      <c r="Z109" s="19"/>
+    </row>
+    <row r="110" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+      <c r="A110" s="10">
+        <f ca="1">IF(OFFSET(A110,-1,0) ="",OFFSET(A110,-2,0)+1,OFFSET(A110,-1,0)+1 )</f>
+        <v>79</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="J110" s="23"/>
+    </row>
+    <row r="111" spans="1:26" ht="66" x14ac:dyDescent="0.25">
+      <c r="A111" s="10">
+        <f ca="1">IF(OFFSET(A111,-1,0) ="",OFFSET(A111,-2,0)+1,OFFSET(A111,-1,0)+1 )</f>
+        <v>80</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A112" s="10">
+        <f ca="1">IF(OFFSET(A112,-1,0) ="",OFFSET(A112,-2,0)+1,OFFSET(A112,-1,0)+1 )</f>
+        <v>81</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>726</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="B109:I109"/>
     <mergeCell ref="B77:I77"/>
     <mergeCell ref="B91:I91"/>
     <mergeCell ref="B93:I93"/>
     <mergeCell ref="A100:I100"/>
     <mergeCell ref="B101:I101"/>
     <mergeCell ref="B95:I95"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mid term - Nguyen Huu Tu/Test Design Techniques_Nguyen Huu Tu_.xlsx
+++ b/mid term - Nguyen Huu Tu/Test Design Techniques_Nguyen Huu Tu_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRookies\Rookies\mid term - Nguyen Huu Tu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B85CEF8-7D07-45A6-B9D1-E9FD2537D1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B651AA-22D2-4EDB-AC26-FCD0CA884679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="766">
   <si>
     <t>ID</t>
   </si>
@@ -1748,87 +1748,12 @@
     <t>Search a keyword and then check initial sorting box status</t>
   </si>
   <si>
-    <t>When full name box is not entered data</t>
-  </si>
-  <si>
-    <t>When the length is 50 characters</t>
-  </si>
-  <si>
-    <t>When the length is over 50 characters</t>
-  </si>
-  <si>
-    <t>When consisting of alphabetic and special character</t>
-  </si>
-  <si>
-    <t>When consisting of numeric and special character</t>
-  </si>
-  <si>
-    <t>When consisting of alphabetic, numeric and special character</t>
-  </si>
-  <si>
-    <t>When consisting of only numeric characters</t>
-  </si>
-  <si>
-    <t>When consisting of only alphabetic characters</t>
-  </si>
-  <si>
-    <t>When consisting of only special characters</t>
-  </si>
-  <si>
-    <t>When consisting of alphanumeric characters</t>
-  </si>
-  <si>
-    <t>When phone number box is not entered data</t>
-  </si>
-  <si>
-    <t>When the length is under 10 numeric characters</t>
-  </si>
-  <si>
-    <t>When the length is 10 numeric characters</t>
-  </si>
-  <si>
-    <t>When the length is over 10 numeric characters</t>
-  </si>
-  <si>
-    <t>When consisting of both numeric and alphabetic characters</t>
-  </si>
-  <si>
-    <t>When consisting of both numeric and special characters</t>
-  </si>
-  <si>
-    <t>When consisting of both special and alphabetic characters</t>
-  </si>
-  <si>
-    <t>When consisting of numeric, special and alphabetic characters</t>
-  </si>
-  <si>
-    <t>When consisting of only alpabetic characters</t>
-  </si>
-  <si>
     <t>Check with an wrong phone number</t>
   </si>
   <si>
     <t>Address</t>
   </si>
   <si>
-    <t>When address box is not entered data</t>
-  </si>
-  <si>
-    <t>When the length is under 5 characters</t>
-  </si>
-  <si>
-    <t>When the length is 5 characters</t>
-  </si>
-  <si>
-    <t>When the length is more than 5 and less than 350 characters</t>
-  </si>
-  <si>
-    <t>When the length is 350 characters</t>
-  </si>
-  <si>
-    <t>When the length is over 350 characters</t>
-  </si>
-  <si>
     <t>Province</t>
   </si>
   <si>
@@ -1847,39 +1772,18 @@
     <t>Check the order of provinces</t>
   </si>
   <si>
-    <t>When selecting a province</t>
-  </si>
-  <si>
-    <t>When not selecting any province</t>
-  </si>
-  <si>
     <t>District</t>
   </si>
   <si>
-    <t>When not selecting a province at first</t>
-  </si>
-  <si>
     <t>Ward</t>
   </si>
   <si>
-    <t>When not selecting a district at first</t>
-  </si>
-  <si>
-    <t>When not selecting both province and district at first</t>
-  </si>
-  <si>
     <t>Check the number of districts</t>
   </si>
   <si>
     <t>Check the order of districts</t>
   </si>
   <si>
-    <t>When selecting a district</t>
-  </si>
-  <si>
-    <t>When not selecting any district</t>
-  </si>
-  <si>
     <t>Check the number of wards</t>
   </si>
   <si>
@@ -1889,61 +1793,19 @@
     <t>When selecting a ward</t>
   </si>
   <si>
-    <t>When not selecting any ward</t>
-  </si>
-  <si>
     <t>Verify that wards displayed match the chosen district and province</t>
   </si>
   <si>
     <t>Verify that districts displayed match the chosen province</t>
   </si>
   <si>
-    <t>Cancel button</t>
-  </si>
-  <si>
     <t>Save button</t>
   </si>
   <si>
-    <t>Intial status</t>
-  </si>
-  <si>
     <t>Add a new address</t>
   </si>
   <si>
-    <t>Add successfully when filling in all fields with valid input data</t>
-  </si>
-  <si>
-    <t>When not selecting both of them</t>
-  </si>
-  <si>
-    <t>When clicking one of them</t>
-  </si>
-  <si>
-    <t>When the length is under 2 characters</t>
-  </si>
-  <si>
-    <t>When the length is 2 characters</t>
-  </si>
-  <si>
-    <t>When the length is over 2 and under 50 characters</t>
-  </si>
-  <si>
     <t>Label for delivery</t>
-  </si>
-  <si>
-    <t>Add successfully when just filling in all required fields with valid input data and not selecting label for delivery</t>
-  </si>
-  <si>
-    <t>Fail to add when all are blank</t>
-  </si>
-  <si>
-    <t>Fail to add when all are filled with invalid data</t>
-  </si>
-  <si>
-    <t>Fail to add when one of the required fields is invalid data</t>
-  </si>
-  <si>
-    <t>Verify that a new address is on the top of address book</t>
   </si>
   <si>
     <t xml:space="preserve">Open "Add new address" screen then check this box's default status </t>
@@ -1974,9 +1836,6 @@
     <t>Error message 2 "The name length should be 2 - 50 characters" is displayed</t>
   </si>
   <si>
-    <t>Enter "tthn 345ffv fdhj" into this box</t>
-  </si>
-  <si>
     <t>Error message "Name should not contain special characters." is displayed</t>
   </si>
   <si>
@@ -2014,10 +1873,6 @@
   </si>
   <si>
     <t>Only numeric characters are entered</t>
-  </si>
-  <si>
-    <t>1. Copy a text "012562546"
-2. Paste it into this field</t>
   </si>
   <si>
     <t>1. Enter "0360045678" into this field 
@@ -2063,9 +1918,6 @@
     <t xml:space="preserve">Enter "1234567" into this field </t>
   </si>
   <si>
-    <t xml:space="preserve">Enter "!@#$%%^" into this field </t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter "122345abcád" into this field </t>
   </si>
   <si>
@@ -2085,9 +1937,6 @@
   </si>
   <si>
     <t>Space is not automatically trimmed</t>
-  </si>
-  <si>
-    <t>When entering from keyboard</t>
   </si>
   <si>
     <t>There is a placeholder text "Please choose your province"</t>
@@ -2123,9 +1972,6 @@
   <si>
     <t>1. Click into the drop button
 2. Check the number of provinces in this list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are enough all provinces in Vietnam </t>
   </si>
   <si>
     <t>1. Click into the drop button
@@ -2278,9 +2124,6 @@
     <t xml:space="preserve">Open "Add new address" screen then check these buttons' default status </t>
   </si>
   <si>
-    <t>They are unchecked</t>
-  </si>
-  <si>
     <t>1. Enter other fields with valid data but not select this fields
 2. Click "Save"</t>
   </si>
@@ -2291,53 +2134,17 @@
     <t>"Office" button changes color</t>
   </si>
   <si>
-    <t>When selecting both of them</t>
-  </si>
-  <si>
     <t>Click "Office" button and then "Home" button</t>
-  </si>
-  <si>
-    <t>"Home" button changes color and It is not allowed to select 2 options at the same time</t>
   </si>
   <si>
     <t>1. Enter valid data for all fields
 2. click button "Save"</t>
   </si>
   <si>
-    <t>1. Enter valid data for only mandatory fields
-2. click button "Save"</t>
-  </si>
-  <si>
     <t>Click button "Save"</t>
   </si>
   <si>
     <t>Error messages "Mandatory Field" are displayed below required fields</t>
-  </si>
-  <si>
-    <t>1. Enter invalid data for all fields
-2. click button "Save"</t>
-  </si>
-  <si>
-    <t>1. Enter invalid data for all fields, except "Full name" fields 
-2. click button "Save"</t>
-  </si>
-  <si>
-    <t>Error message is displayed under this field</t>
-  </si>
-  <si>
-    <t>Error messages are displayed below all fields</t>
-  </si>
-  <si>
-    <t>1. Add 2 addresses first, then click "add new address"
-2. Enter valid data for all fields
-3. Click "Save"
-4.Check list of addresses on "Address book" screen</t>
-  </si>
-  <si>
-    <t>The newest added address is on the top of the list</t>
-  </si>
-  <si>
-    <t>When clicking into "cancel" button</t>
   </si>
   <si>
     <t>Edit an address</t>
@@ -2375,14 +2182,332 @@
     <t>Return "address book" screen with the remained address</t>
   </si>
   <si>
-    <t>Return "address book" screen and the new address is added on this screen</t>
+    <t>Verify that this field is disable when not selecting a province at first</t>
+  </si>
+  <si>
+    <t>Check mandatory</t>
+  </si>
+  <si>
+    <t>Verify when entering data from keyboard</t>
+  </si>
+  <si>
+    <t>Verify when clicking into drop button</t>
+  </si>
+  <si>
+    <t>Verify when clicking into this box</t>
+  </si>
+  <si>
+    <t>Verify when selecting a district</t>
+  </si>
+  <si>
+    <t>Verify that this field is disable when not selecting a district at first</t>
+  </si>
+  <si>
+    <t>Verify that this field is disable when not selecting both province and district at first</t>
+  </si>
+  <si>
+    <t>When not selecting "office" and "home"</t>
+  </si>
+  <si>
+    <t>Click "Home" button</t>
+  </si>
+  <si>
+    <t>Intial value</t>
+  </si>
+  <si>
+    <t>They are visible and unchecked</t>
+  </si>
+  <si>
+    <t>Verify that "Office" is enable</t>
+  </si>
+  <si>
+    <t>Verify that "Home" is enable</t>
+  </si>
+  <si>
+    <t>Verify that the option will change when select again another field</t>
+  </si>
+  <si>
+    <t>"Home" button changes color lighter and "Office " button returns unchecked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are enough all 63 provinces of Vietnam </t>
+  </si>
+  <si>
+    <t>1. Enter valid data for all mandatory fields and select "Home"
+2. click button "Save"</t>
+  </si>
+  <si>
+    <t>1. Enter valid data for all mandatory fields and select "Office"
+2. click button "Save"</t>
+  </si>
+  <si>
+    <t>A new address is created with the label of "Home"</t>
+  </si>
+  <si>
+    <t>A new address is created and return "Address book" screen</t>
+  </si>
+  <si>
+    <t>1. Enter valid data for only mandatory fields 
+2. click button "Save"</t>
+  </si>
+  <si>
+    <t>Check automatically trim space</t>
+  </si>
+  <si>
+    <t>1. Input " abc sghdj kj " into this box
+2. Enter valid data for other fields
+3. Click "Save"</t>
+  </si>
+  <si>
+    <t>Verify showing "abc sghdj kj" in this box</t>
+  </si>
+  <si>
+    <t>Initial value</t>
+  </si>
+  <si>
+    <t>A new address is created with the label of "Office"</t>
+  </si>
+  <si>
+    <t>Verify adding successfully when filling in all fields with valid input data</t>
+  </si>
+  <si>
+    <t>Verify adding successfully when just filling in all required fields with valid input data and not selecting "Office" and "Home"</t>
+  </si>
+  <si>
+    <t>Verify adding a new address as a home successfully</t>
+  </si>
+  <si>
+    <t>Verify adding a new address as a office successfully</t>
+  </si>
+  <si>
+    <t>Verify that fail to add when all are blank</t>
+  </si>
+  <si>
+    <t>Verify when clicking into "cancel" button</t>
+  </si>
+  <si>
+    <t>Verify error when full name box is not entered data</t>
+  </si>
+  <si>
+    <t>Verify when the length is under 2 characters</t>
+  </si>
+  <si>
+    <t>Verify when the length is 2 characters</t>
+  </si>
+  <si>
+    <t>Verify when the length is over 2 and under 50 characters</t>
+  </si>
+  <si>
+    <t>Verify when the length is 50 characters</t>
+  </si>
+  <si>
+    <t>Verify when the length is over 50 characters</t>
+  </si>
+  <si>
+    <t>Verify when full name consists of only alphabetic characters</t>
+  </si>
+  <si>
+    <t>Verify when full name consists of only numeric characters</t>
+  </si>
+  <si>
+    <t>Verify when full name consists of alphanumeric characters</t>
+  </si>
+  <si>
+    <t>Verify when full name consists of alphabetic and special character</t>
+  </si>
+  <si>
+    <t>Verify when full name consists of numeric and special character</t>
+  </si>
+  <si>
+    <t>Verify when full name consists of alphabetic, numeric and special character</t>
+  </si>
+  <si>
+    <t>Verify when it is copied and pasted</t>
+  </si>
+  <si>
+    <t>Verify when clicking button delete</t>
+  </si>
+  <si>
+    <t>Verify when full name consists of only special/html/code characters</t>
+  </si>
+  <si>
+    <t>Check copy &amp; paste into the box</t>
+  </si>
+  <si>
+    <t>1. Copy a text " abc sghdj kj "
+2. Paste it in this box</t>
+  </si>
+  <si>
+    <t>This text is displayed in the box</t>
+  </si>
+  <si>
+    <t>Verify error when phone number box is not entered data</t>
+  </si>
+  <si>
+    <t>Verify when the length is 10 numeric characters</t>
+  </si>
+  <si>
+    <t>Verify when the length is under 10 numeric characters</t>
+  </si>
+  <si>
+    <t>Verify when the length is over 10 numeric characters</t>
+  </si>
+  <si>
+    <t>Verify when consisting of both numeric and alphabetic characters</t>
+  </si>
+  <si>
+    <t>Verify when it consists of both numeric and special characters</t>
+  </si>
+  <si>
+    <t>Verify when it consists of both special and alphabetic characters</t>
+  </si>
+  <si>
+    <t>Verify when it consists of numeric, special and alphabetic characters</t>
+  </si>
+  <si>
+    <t>Verify when it consists of only alpabetic characters</t>
+  </si>
+  <si>
+    <t>Verify when it is copied and pasted a string</t>
+  </si>
+  <si>
+    <t>1. Copy a text "0125advfgw"
+2. Paste it into this field</t>
+  </si>
+  <si>
+    <t>Display only numbers</t>
+  </si>
+  <si>
+    <t>Verify when it consists of numeric, special/html/code and alphabetic characters</t>
+  </si>
+  <si>
+    <t>Verify when it consists of only special/html/code characters</t>
+  </si>
+  <si>
+    <t>Verify when address box is not entered data</t>
+  </si>
+  <si>
+    <t>Verify when the length is under 5 characters</t>
+  </si>
+  <si>
+    <t>Verify when the length is 5 characters</t>
+  </si>
+  <si>
+    <t>Verify when the length is more than 5 and less than 350 characters</t>
+  </si>
+  <si>
+    <t>Verify when the length is 350 characters</t>
+  </si>
+  <si>
+    <t>Verify when the length is over 350 characters</t>
+  </si>
+  <si>
+    <t>Verify when it consists of only numeric characters</t>
+  </si>
+  <si>
+    <t>Verify when it consists of both numeric and alphabetic characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter "SELECT * FROM Users WHERE Username = 'abc' " into this field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter "getName(user1.name)" into this field </t>
+  </si>
+  <si>
+    <t>1. Copy a text "12 trieu khuc"
+2. Paste it into this field</t>
+  </si>
+  <si>
+    <t>Display this text in the box</t>
+  </si>
+  <si>
+    <t>Verify when it is copied and pasted a text</t>
+  </si>
+  <si>
+    <t>Verify when entering from keyboard</t>
+  </si>
+  <si>
+    <t>Verify when selecting a province</t>
+  </si>
+  <si>
+    <t>Verify when click this box but not select a any choice</t>
+  </si>
+  <si>
+    <t>1. Click the box 
+2. Click outside the box</t>
+  </si>
+  <si>
+    <t>Close the province list and this field has the initial placeholder</t>
+  </si>
+  <si>
+    <t>Close the district list and this field has the initial placeholder</t>
+  </si>
+  <si>
+    <t>Verify that the district list will change when changing province</t>
+  </si>
+  <si>
+    <t>1. Select Hanoi in province field and check district field
+2. Select Danang in province field and check district field</t>
+  </si>
+  <si>
+    <t>Hanoi's districts are altered by Danang's district in the list</t>
+  </si>
+  <si>
+    <t>Verify that the ward list will change when changing district</t>
+  </si>
+  <si>
+    <t>1. Select Thanh Xuan in district field and check ward field
+2. Select Cau Giay in district field and check ward field</t>
+  </si>
+  <si>
+    <t>Thanh Xuan's wards are altered by Cau Giay's wards in the list</t>
+  </si>
+  <si>
+    <t>Close the ward list and this field has the initial placeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A new address is created and return "Address book" screen </t>
+  </si>
+  <si>
+    <t>A new address is created with the same data and return "Address book" screen</t>
+  </si>
+  <si>
+    <t>Verify adding successfully a new address which is partly different from an existing one</t>
+  </si>
+  <si>
+    <t>Verify adding successfully a new address with the same data with an existing one</t>
+  </si>
+  <si>
+    <t>1. Add 4 addresses first, then click "add new address"
+2. Enter valid data for all fields
+3. Click "Save"
+4.Check list of addresses on "Address book" screen</t>
+  </si>
+  <si>
+    <t>The newest address is added and it is on top of the list</t>
+  </si>
+  <si>
+    <t>Verify adding successfully a new address into the address list with 4 existing ones and check its position</t>
+  </si>
+  <si>
+    <t>1. Add an address first, then click "add new address"
+2. Enter the same data with the created address for all fields
+3. Click "Save"</t>
+  </si>
+  <si>
+    <t>1. Add an address first, then click "add new address"
+2. Change the full name field and enter the same data for all others fields
+3. Click "Save"</t>
+  </si>
+  <si>
+    <t>A new address is created with a new full name and the same data for other fields</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2446,6 +2571,25 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2569,7 +2713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2685,15 +2829,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2724,6 +2859,72 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3005,17 +3206,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -3050,17 +3251,17 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -3125,17 +3326,17 @@
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -3200,17 +3401,17 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -3275,17 +3476,17 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -3320,17 +3521,17 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -3395,17 +3596,17 @@
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -3470,17 +3671,17 @@
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="46"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -3545,17 +3746,17 @@
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="46"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -3635,17 +3836,17 @@
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -3665,17 +3866,17 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="46"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -3800,17 +4001,17 @@
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="46"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="43"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -3905,17 +4106,17 @@
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="49"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="46"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -3935,17 +4136,17 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="43"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -4010,17 +4211,17 @@
       <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="46"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="43"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -6957,17 +7158,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -6988,16 +7189,16 @@
     </row>
     <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="22"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -7363,17 +7564,17 @@
       <c r="Z20"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="53"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
@@ -7457,17 +7658,17 @@
       <c r="Z25"/>
     </row>
     <row r="26" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
       <c r="J26" s="22"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
@@ -7718,17 +7919,17 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="52"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="49"/>
       <c r="J41" s="22"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -8109,17 +8310,17 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="50" t="s">
+      <c r="A63" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="52"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="49"/>
       <c r="J63" s="22"/>
       <c r="K63" s="19"/>
       <c r="L63" s="19"/>
@@ -8453,17 +8654,17 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="50" t="s">
+      <c r="A85" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="52"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="49"/>
       <c r="J85" s="22"/>
       <c r="K85" s="19"/>
       <c r="L85" s="19"/>
@@ -8542,17 +8743,17 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="50" t="s">
+      <c r="A90" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="51"/>
-      <c r="G90" s="51"/>
-      <c r="H90" s="51"/>
-      <c r="I90" s="52"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="49"/>
       <c r="J90" s="22"/>
       <c r="K90" s="19"/>
       <c r="L90" s="19"/>
@@ -8798,17 +8999,17 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="50" t="s">
+      <c r="A106" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="51"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="51"/>
-      <c r="G106" s="51"/>
-      <c r="H106" s="51"/>
-      <c r="I106" s="52"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="49"/>
       <c r="J106" s="22"/>
       <c r="K106" s="19"/>
       <c r="L106" s="19"/>
@@ -8857,17 +9058,17 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A109" s="50" t="s">
+      <c r="A109" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="B109" s="51"/>
-      <c r="C109" s="51"/>
-      <c r="D109" s="51"/>
-      <c r="E109" s="51"/>
-      <c r="F109" s="51"/>
-      <c r="G109" s="51"/>
-      <c r="H109" s="51"/>
-      <c r="I109" s="52"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="49"/>
       <c r="J109" s="22"/>
       <c r="K109" s="19"/>
       <c r="L109" s="19"/>
@@ -8916,17 +9117,17 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A112" s="50" t="s">
+      <c r="A112" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="B112" s="51"/>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="52"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="49"/>
       <c r="J112" s="22"/>
       <c r="K112" s="19"/>
       <c r="L112" s="19"/>
@@ -9092,17 +9293,17 @@
       </c>
     </row>
     <row r="121" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="47" t="s">
+      <c r="A121" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="B121" s="47"/>
-      <c r="C121" s="47"/>
-      <c r="D121" s="47"/>
-      <c r="E121" s="47"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="47"/>
-      <c r="I121" s="56"/>
+      <c r="B121" s="44"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="44"/>
+      <c r="E121" s="44"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="44"/>
+      <c r="I121" s="53"/>
       <c r="J121" s="21"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -9339,17 +9540,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -9385,17 +9586,17 @@
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="21"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -9616,17 +9817,17 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="44" t="s">
         <v>518</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="56"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="21"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -9690,17 +9891,17 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="56"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="53"/>
       <c r="J21" s="21"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -9794,17 +9995,17 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="44" t="s">
         <v>532</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
       <c r="J27" s="21"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -9920,17 +10121,17 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="44" t="s">
         <v>476</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
       <c r="J33" s="21"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -10218,46 +10419,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DED832-995C-42D4-A46B-4BE115A850FA}">
-  <dimension ref="A1:Z112"/>
+  <dimension ref="A1:Z120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="10" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" style="23" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" style="23" customWidth="1"/>
     <col min="4" max="4" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" s="10" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="55" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="9"/>
@@ -10278,18 +10479,18 @@
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -10308,18 +10509,18 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="22"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -10338,629 +10539,737 @@
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
     </row>
-    <row r="4" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="63">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="B4" s="64" t="s">
+        <v>690</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>554</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>555</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="23"/>
     </row>
-    <row r="5" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <f t="shared" ref="A5:A19" ca="1" si="0">IF(OFFSET(A5,-1,0) ="",OFFSET(A5,-2,0)+1,OFFSET(A5,-1,0)+1 )</f>
+    <row r="5" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="63">
+        <f t="shared" ref="A5:A20" ca="1" si="0">IF(OFFSET(A5,-1,0) ="",OFFSET(A5,-2,0)+1,OFFSET(A5,-1,0)+1 )</f>
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="E5" s="4"/>
+      <c r="B5" s="64" t="s">
+        <v>698</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>556</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>557</v>
+      </c>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="23"/>
     </row>
-    <row r="6" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="63">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="E6" s="4"/>
+      <c r="B6" s="64" t="s">
+        <v>699</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>558</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>562</v>
+      </c>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="63">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="E7" s="4"/>
+      <c r="B7" s="64" t="s">
+        <v>700</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>559</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="E8" s="4"/>
+      <c r="B8" s="64" t="s">
+        <v>701</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>561</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="63">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="64" t="s">
+        <v>702</v>
+      </c>
+      <c r="C9" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="E9" s="4"/>
+      <c r="D9" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="E9" s="66"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="63">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="64" t="s">
+        <v>703</v>
+      </c>
+      <c r="C10" s="65" t="s">
         <v>338</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="D10" s="64" t="s">
+        <v>562</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="63">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="E11" s="6"/>
+      <c r="B11" s="64" t="s">
+        <v>687</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>688</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>689</v>
+      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="63">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="E12" s="4"/>
+      <c r="B12" s="64" t="s">
+        <v>713</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>714</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>715</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+    <row r="13" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="E13" s="4"/>
+      <c r="B13" s="64" t="s">
+        <v>704</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+    <row r="14" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="63">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="E14" s="4"/>
+      <c r="B14" s="64" t="s">
+        <v>705</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>569</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>570</v>
+      </c>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+    <row r="15" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="63">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="E15" s="4"/>
+      <c r="B15" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+    <row r="16" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="63">
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="E16" s="4"/>
+      <c r="B16" s="64" t="s">
+        <v>706</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>564</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="E16" s="66"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+    <row r="17" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="63">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="B17" s="64" t="s">
+        <v>707</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+    <row r="18" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="63">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="E18" s="4"/>
+      <c r="B18" s="64" t="s">
+        <v>708</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="23"/>
     </row>
-    <row r="19" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+    <row r="19" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="63">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="64" t="s">
+        <v>709</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="63">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>710</v>
+      </c>
+      <c r="C20" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <f ca="1">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
-        <v>17</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="63">
+        <f ca="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
+        <v>18</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>711</v>
+      </c>
+      <c r="C21" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-    </row>
-    <row r="22" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>1</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>614</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <f ca="1">IF(OFFSET(A23,-1,0) ="",OFFSET(A23,-2,0)+1,OFFSET(A23,-1,0)+1 )</f>
-        <v>2</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="E23" s="4"/>
+      <c r="D21" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="68"/>
+      <c r="B22" s="69" t="s">
+        <v>566</v>
+      </c>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+    </row>
+    <row r="23" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="63">
+        <v>19</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>690</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>554</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="23"/>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <f t="shared" ref="A24:A35" ca="1" si="1">IF(OFFSET(A24,-1,0) ="",OFFSET(A24,-2,0)+1,OFFSET(A24,-1,0)+1 )</f>
-        <v>3</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="C24" s="15" t="s">
+    </row>
+    <row r="24" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63">
+        <f ca="1">IF(OFFSET(A24,-1,0) ="",OFFSET(A24,-2,0)+1,OFFSET(A24,-1,0)+1 )</f>
+        <v>20</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>556</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>568</v>
+      </c>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="63">
+        <f t="shared" ref="A25:A36" ca="1" si="1">IF(OFFSET(A25,-1,0) ="",OFFSET(A25,-2,0)+1,OFFSET(A25,-1,0)+1 )</f>
+        <v>21</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>718</v>
+      </c>
+      <c r="C25" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="J24" s="23"/>
-    </row>
-    <row r="25" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="D25" s="64" t="s">
+        <v>571</v>
+      </c>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="C26" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="J25" s="24"/>
-    </row>
-    <row r="26" spans="1:26" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="D26" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="C26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>719</v>
+      </c>
+      <c r="C27" s="65" t="s">
         <v>382</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="J26" s="23"/>
-    </row>
-    <row r="27" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>6</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="C27" s="15" t="s">
+      <c r="D27" s="64" t="s">
+        <v>571</v>
+      </c>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="63">
+        <v>24</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>720</v>
+      </c>
+      <c r="C28" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="J27" s="23"/>
-    </row>
-    <row r="28" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+      <c r="D28" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="C28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>721</v>
+      </c>
+      <c r="C29" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="J28" s="22"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-    </row>
-    <row r="29" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="E29" s="4"/>
+      <c r="D29" s="64" t="s">
+        <v>573</v>
+      </c>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
       <c r="J29" s="22"/>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="W29" s="19"/>
       <c r="X29" s="19"/>
     </row>
-    <row r="30" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+    <row r="30" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>722</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="22"/>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="19"/>
     </row>
-    <row r="31" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+    <row r="31" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>728</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="22"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+    </row>
+    <row r="32" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="63">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>724</v>
+      </c>
+      <c r="C32" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="J31" s="27"/>
-    </row>
-    <row r="32" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="D32" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="27"/>
+    </row>
+    <row r="33" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="J32" s="27"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+        <v>29</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>729</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>738</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>573</v>
+      </c>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="27"/>
+    </row>
+    <row r="34" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>687</v>
+      </c>
+      <c r="C34" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="J33" s="27"/>
-    </row>
-    <row r="34" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="D34" s="64" t="s">
+        <v>575</v>
+      </c>
+      <c r="E34" s="66"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="27"/>
+    </row>
+    <row r="35" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="J34" s="27"/>
-    </row>
-    <row r="35" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+        <v>31</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>725</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>726</v>
+      </c>
+      <c r="D35" s="64" t="s">
+        <v>727</v>
+      </c>
+      <c r="E35" s="66"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="27"/>
+    </row>
+    <row r="36" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="63">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>624</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="J35" s="27"/>
-    </row>
-    <row r="36" spans="1:26" s="20" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <f ca="1">IF(OFFSET(A36,-1,0) ="",OFFSET(A36,-2,0)+1,OFFSET(A36,-1,0)+1 )</f>
-        <v>15</v>
-      </c>
-      <c r="B36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>534</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>576</v>
+      </c>
+      <c r="D36" s="64" t="s">
+        <v>578</v>
+      </c>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="27"/>
+    </row>
+    <row r="37" spans="1:26" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="63">
+        <f ca="1">IF(OFFSET(A37,-1,0) ="",OFFSET(A37,-2,0)+1,OFFSET(A37,-1,0)+1 )</f>
+        <v>33</v>
+      </c>
+      <c r="B37" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36" s="28"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-    </row>
-    <row r="37" spans="1:26" s="20" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
-        <f ca="1">IF(OFFSET(A37,-1,0) ="",OFFSET(A37,-2,0)+1,OFFSET(A37,-1,0)+1 )</f>
-        <v>16</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
+      <c r="C37" s="65" t="s">
+        <v>577</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>578</v>
+      </c>
+      <c r="E37" s="66"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
       <c r="J37" s="28"/>
       <c r="K37"/>
       <c r="L37"/>
@@ -10979,1331 +11288,1811 @@
       <c r="Y37"/>
       <c r="Z37"/>
     </row>
-    <row r="38" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
+    <row r="38" spans="1:26" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="63">
+        <f ca="1">IF(OFFSET(A38,-1,0) ="",OFFSET(A38,-2,0)+1,OFFSET(A38,-1,0)+1 )</f>
+        <v>34</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>409</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="E38" s="66"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="28"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="68" t="s">
+        <v>535</v>
+      </c>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+    </row>
+    <row r="40" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="63">
+        <v>35</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>690</v>
+      </c>
+      <c r="C40" s="65" t="s">
         <v>554</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-    </row>
-    <row r="39" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>17</v>
-      </c>
-      <c r="B39" s="26" t="s">
+      <c r="D40" s="64" t="s">
+        <v>579</v>
+      </c>
+      <c r="E40" s="66"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="23"/>
+    </row>
+    <row r="41" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="63">
+        <f ca="1">IF(OFFSET(A41,-1,0) ="",OFFSET(A41,-2,0)+1,OFFSET(A41,-1,0)+1 )</f>
+        <v>36</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>730</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>556</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>580</v>
+      </c>
+      <c r="E41" s="66"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="25"/>
+    </row>
+    <row r="42" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="63">
+        <f t="shared" ref="A42:A56" ca="1" si="2">IF(OFFSET(A42,-1,0) ="",OFFSET(A42,-2,0)+1,OFFSET(A42,-1,0)+1 )</f>
+        <v>37</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>731</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>581</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>584</v>
+      </c>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+    </row>
+    <row r="43" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="63">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>732</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>582</v>
+      </c>
+      <c r="D43" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+    </row>
+    <row r="44" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="63">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>733</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>594</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+    </row>
+    <row r="45" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="63">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>734</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>585</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+    </row>
+    <row r="46" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="63">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>735</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>586</v>
+      </c>
+      <c r="D46" s="64" t="s">
+        <v>584</v>
+      </c>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+    </row>
+    <row r="47" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="63">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>724</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>587</v>
+      </c>
+      <c r="D47" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+    </row>
+    <row r="48" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="63">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B48" s="64" t="s">
+        <v>736</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>588</v>
+      </c>
+      <c r="D48" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+    </row>
+    <row r="49" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="63">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>729</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>739</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="E49" s="66"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="25"/>
+    </row>
+    <row r="50" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="63">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>737</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>589</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+    </row>
+    <row r="51" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="63">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B51" s="64" t="s">
+        <v>721</v>
+      </c>
+      <c r="C51" s="65" t="s">
+        <v>591</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+    </row>
+    <row r="52" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="63">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B52" s="64" t="s">
+        <v>722</v>
+      </c>
+      <c r="C52" s="65" t="s">
+        <v>592</v>
+      </c>
+      <c r="D52" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+    </row>
+    <row r="53" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="63">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>723</v>
+      </c>
+      <c r="C53" s="65" t="s">
+        <v>593</v>
+      </c>
+      <c r="D53" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+    </row>
+    <row r="54" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="63">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B54" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>740</v>
+      </c>
+      <c r="D54" s="64" t="s">
+        <v>741</v>
+      </c>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+    </row>
+    <row r="55" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="63">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B55" s="64" t="s">
+        <v>687</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>583</v>
+      </c>
+      <c r="D55" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+    </row>
+    <row r="56" spans="1:26" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="63">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B56" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>409</v>
+      </c>
+      <c r="D56" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" s="66"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="28"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+    </row>
+    <row r="57" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="68" t="s">
+        <v>536</v>
+      </c>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="19"/>
+    </row>
+    <row r="58" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="63">
+        <v>52</v>
+      </c>
+      <c r="B58" s="64" t="s">
+        <v>690</v>
+      </c>
+      <c r="C58" s="65" t="s">
+        <v>554</v>
+      </c>
+      <c r="D58" s="64" t="s">
+        <v>596</v>
+      </c>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+    </row>
+    <row r="59" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="63">
+        <f t="shared" ref="A59:A67" ca="1" si="3">IF(OFFSET(A59,-1,0) ="",OFFSET(A59,-2,0)+1,OFFSET(A59,-1,0)+1 )</f>
+        <v>53</v>
+      </c>
+      <c r="B59" s="64" t="s">
+        <v>743</v>
+      </c>
+      <c r="C59" s="65" t="s">
+        <v>599</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>611</v>
+      </c>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+    </row>
+    <row r="60" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="63">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="B60" s="64" t="s">
+        <v>668</v>
+      </c>
+      <c r="C60" s="65" t="s">
+        <v>601</v>
+      </c>
+      <c r="D60" s="64" t="s">
+        <v>602</v>
+      </c>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+    </row>
+    <row r="61" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="63">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>669</v>
+      </c>
+      <c r="C61" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="D61" s="64" t="s">
+        <v>602</v>
+      </c>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+    </row>
+    <row r="62" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="63">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="B62" s="64" t="s">
+        <v>745</v>
+      </c>
+      <c r="C62" s="65" t="s">
+        <v>746</v>
+      </c>
+      <c r="D62" s="64" t="s">
+        <v>747</v>
+      </c>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+    </row>
+    <row r="63" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="63">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B63" s="64" t="s">
+        <v>539</v>
+      </c>
+      <c r="C63" s="64" t="s">
+        <v>604</v>
+      </c>
+      <c r="D63" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+    </row>
+    <row r="64" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="63">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="B64" s="64" t="s">
+        <v>540</v>
+      </c>
+      <c r="C64" s="64" t="s">
+        <v>607</v>
+      </c>
+      <c r="D64" s="64" t="s">
+        <v>681</v>
+      </c>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+    </row>
+    <row r="65" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="63">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="B65" s="64" t="s">
+        <v>541</v>
+      </c>
+      <c r="C65" s="64" t="s">
+        <v>606</v>
+      </c>
+      <c r="D65" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+    </row>
+    <row r="66" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="63">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="B66" s="64" t="s">
+        <v>744</v>
+      </c>
+      <c r="C66" s="64" t="s">
+        <v>608</v>
+      </c>
+      <c r="D66" s="64" t="s">
+        <v>609</v>
+      </c>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
+    </row>
+    <row r="67" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="63">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="B67" s="64" t="s">
+        <v>666</v>
+      </c>
+      <c r="C67" s="65" t="s">
+        <v>556</v>
+      </c>
+      <c r="D67" s="64" t="s">
+        <v>610</v>
+      </c>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
+    </row>
+    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="68" t="s">
+        <v>542</v>
+      </c>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
+      <c r="Z68" s="19"/>
+    </row>
+    <row r="69" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="63">
+        <v>62</v>
+      </c>
+      <c r="B69" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C69" s="65" t="s">
+        <v>554</v>
+      </c>
+      <c r="D69" s="64" t="s">
+        <v>597</v>
+      </c>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+    </row>
+    <row r="70" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="63">
+        <f t="shared" ref="A70:A81" ca="1" si="4">IF(OFFSET(A70,-1,0) ="",OFFSET(A70,-2,0)+1,OFFSET(A70,-1,0)+1 )</f>
+        <v>63</v>
+      </c>
+      <c r="B70" s="64" t="s">
+        <v>667</v>
+      </c>
+      <c r="C70" s="65" t="s">
+        <v>599</v>
+      </c>
+      <c r="D70" s="64" t="s">
+        <v>611</v>
+      </c>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+    </row>
+    <row r="71" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="63">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="B71" s="64" t="s">
+        <v>665</v>
+      </c>
+      <c r="C71" s="64" t="s">
+        <v>612</v>
+      </c>
+      <c r="D71" s="64" t="s">
+        <v>484</v>
+      </c>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
+    </row>
+    <row r="72" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="63">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="B72" s="64" t="s">
+        <v>745</v>
+      </c>
+      <c r="C72" s="65" t="s">
+        <v>746</v>
+      </c>
+      <c r="D72" s="64" t="s">
+        <v>748</v>
+      </c>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+    </row>
+    <row r="73" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="63">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="B73" s="64" t="s">
+        <v>668</v>
+      </c>
+      <c r="C73" s="65" t="s">
+        <v>627</v>
+      </c>
+      <c r="D73" s="64" t="s">
+        <v>613</v>
+      </c>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+    </row>
+    <row r="74" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="63">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>669</v>
+      </c>
+      <c r="C74" s="65" t="s">
+        <v>628</v>
+      </c>
+      <c r="D74" s="64" t="s">
+        <v>613</v>
+      </c>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+    </row>
+    <row r="75" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="63">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>539</v>
+      </c>
+      <c r="C75" s="64" t="s">
+        <v>629</v>
+      </c>
+      <c r="D75" s="64" t="s">
+        <v>614</v>
+      </c>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+    </row>
+    <row r="76" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="63">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="B76" s="64" t="s">
+        <v>550</v>
+      </c>
+      <c r="C76" s="65" t="s">
+        <v>619</v>
+      </c>
+      <c r="D76" s="64" t="s">
+        <v>615</v>
+      </c>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+    </row>
+    <row r="77" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="63">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="B77" s="64" t="s">
+        <v>544</v>
+      </c>
+      <c r="C77" s="65" t="s">
+        <v>618</v>
+      </c>
+      <c r="D77" s="64" t="s">
+        <v>616</v>
+      </c>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
+    </row>
+    <row r="78" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="63">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="B78" s="64" t="s">
+        <v>545</v>
+      </c>
+      <c r="C78" s="65" t="s">
+        <v>617</v>
+      </c>
+      <c r="D78" s="64" t="s">
+        <v>620</v>
+      </c>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
+    </row>
+    <row r="79" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="63">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="B79" s="64" t="s">
+        <v>670</v>
+      </c>
+      <c r="C79" s="64" t="s">
+        <v>641</v>
+      </c>
+      <c r="D79" s="64" t="s">
+        <v>622</v>
+      </c>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="67"/>
+    </row>
+    <row r="80" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="63">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="B80" s="64" t="s">
+        <v>749</v>
+      </c>
+      <c r="C80" s="64" t="s">
+        <v>750</v>
+      </c>
+      <c r="D80" s="64" t="s">
+        <v>751</v>
+      </c>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67"/>
+    </row>
+    <row r="81" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="63">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="B81" s="64" t="s">
+        <v>666</v>
+      </c>
+      <c r="C81" s="65" t="s">
+        <v>556</v>
+      </c>
+      <c r="D81" s="64" t="s">
+        <v>623</v>
+      </c>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="67"/>
+    </row>
+    <row r="82" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="71"/>
+      <c r="B82" s="72" t="s">
+        <v>543</v>
+      </c>
+      <c r="C82" s="72"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="72"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="19"/>
+      <c r="W82" s="19"/>
+      <c r="X82" s="19"/>
+      <c r="Y82" s="19"/>
+      <c r="Z82" s="19"/>
+    </row>
+    <row r="83" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="63">
+        <f ca="1">IF(OFFSET(A83,-1,0) ="",OFFSET(A83,-2,0)+1,OFFSET(A83,-1,0)+1 )</f>
+        <v>75</v>
+      </c>
+      <c r="B83" s="64" t="s">
+        <v>690</v>
+      </c>
+      <c r="C83" s="65" t="s">
+        <v>554</v>
+      </c>
+      <c r="D83" s="64" t="s">
+        <v>598</v>
+      </c>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
+    </row>
+    <row r="84" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="63">
+        <f t="shared" ref="A84:A97" ca="1" si="5">IF(OFFSET(A84,-1,0) ="",OFFSET(A84,-2,0)+1,OFFSET(A84,-1,0)+1 )</f>
+        <v>76</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>667</v>
+      </c>
+      <c r="C84" s="65" t="s">
+        <v>599</v>
+      </c>
+      <c r="D84" s="64" t="s">
         <v>600</v>
       </c>
-      <c r="D39" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="J39" s="23"/>
-    </row>
-    <row r="40" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <f ca="1">IF(OFFSET(A40,-1,0) ="",OFFSET(A40,-2,0)+1,OFFSET(A40,-1,0)+1 )</f>
-        <v>18</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="25"/>
-    </row>
-    <row r="41" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <f t="shared" ref="A41:A54" ca="1" si="2">IF(OFFSET(A41,-1,0) ="",OFFSET(A41,-2,0)+1,OFFSET(A41,-1,0)+1 )</f>
-        <v>19</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="67"/>
+    </row>
+    <row r="85" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="63">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="B85" s="64" t="s">
+        <v>665</v>
+      </c>
+      <c r="C85" s="64" t="s">
+        <v>642</v>
+      </c>
+      <c r="D85" s="64" t="s">
+        <v>484</v>
+      </c>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+    </row>
+    <row r="86" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="63">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="B86" s="64" t="s">
+        <v>671</v>
+      </c>
+      <c r="C86" s="64" t="s">
+        <v>643</v>
+      </c>
+      <c r="D86" s="64" t="s">
+        <v>484</v>
+      </c>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="67"/>
+    </row>
+    <row r="87" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="63">
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="B87" s="64" t="s">
+        <v>672</v>
+      </c>
+      <c r="C87" s="64" t="s">
+        <v>644</v>
+      </c>
+      <c r="D87" s="64" t="s">
+        <v>484</v>
+      </c>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="67"/>
+    </row>
+    <row r="88" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="63">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="B88" s="64" t="s">
+        <v>745</v>
+      </c>
+      <c r="C88" s="65" t="s">
+        <v>746</v>
+      </c>
+      <c r="D88" s="64" t="s">
+        <v>755</v>
+      </c>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="67"/>
+    </row>
+    <row r="89" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="63">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="B89" s="64" t="s">
+        <v>537</v>
+      </c>
+      <c r="C89" s="65" t="s">
+        <v>624</v>
+      </c>
+      <c r="D89" s="64" t="s">
+        <v>626</v>
+      </c>
+      <c r="E89" s="67"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="67"/>
+      <c r="I89" s="67"/>
+    </row>
+    <row r="90" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="63">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="B90" s="64" t="s">
+        <v>538</v>
+      </c>
+      <c r="C90" s="65" t="s">
+        <v>625</v>
+      </c>
+      <c r="D90" s="64" t="s">
+        <v>626</v>
+      </c>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
+    </row>
+    <row r="91" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="63">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="B91" s="64" t="s">
+        <v>539</v>
+      </c>
+      <c r="C91" s="64" t="s">
+        <v>630</v>
+      </c>
+      <c r="D91" s="64" t="s">
+        <v>631</v>
+      </c>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="67"/>
+    </row>
+    <row r="92" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="63">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="B92" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="C92" s="65" t="s">
+        <v>632</v>
+      </c>
+      <c r="D92" s="64" t="s">
+        <v>633</v>
+      </c>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+    </row>
+    <row r="93" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="63">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="B93" s="64" t="s">
+        <v>546</v>
+      </c>
+      <c r="C93" s="65" t="s">
+        <v>634</v>
+      </c>
+      <c r="D93" s="64" t="s">
+        <v>636</v>
+      </c>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="67"/>
+    </row>
+    <row r="94" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="63">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="B94" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="C94" s="65" t="s">
+        <v>635</v>
+      </c>
+      <c r="D94" s="64" t="s">
+        <v>637</v>
+      </c>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="67"/>
+    </row>
+    <row r="95" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="63">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="B95" s="64" t="s">
+        <v>548</v>
+      </c>
+      <c r="C95" s="64" t="s">
+        <v>638</v>
+      </c>
+      <c r="D95" s="64" t="s">
+        <v>639</v>
+      </c>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
+    </row>
+    <row r="96" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="63">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="B96" s="64" t="s">
+        <v>752</v>
+      </c>
+      <c r="C96" s="64" t="s">
+        <v>753</v>
+      </c>
+      <c r="D96" s="64" t="s">
+        <v>754</v>
+      </c>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
+    </row>
+    <row r="97" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="63">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="B97" s="64" t="s">
+        <v>666</v>
+      </c>
+      <c r="C97" s="65" t="s">
         <v>556</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="D97" s="64" t="s">
+        <v>640</v>
+      </c>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="67"/>
+    </row>
+    <row r="98" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="71"/>
+      <c r="B98" s="72" t="s">
+        <v>551</v>
+      </c>
+      <c r="C98" s="72"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="72"/>
+      <c r="H98" s="72"/>
+      <c r="I98" s="73"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="19"/>
+      <c r="T98" s="19"/>
+      <c r="U98" s="19"/>
+      <c r="V98" s="19"/>
+      <c r="W98" s="19"/>
+      <c r="X98" s="19"/>
+      <c r="Y98" s="19"/>
+      <c r="Z98" s="19"/>
+    </row>
+    <row r="99" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="63">
+        <v>90</v>
+      </c>
+      <c r="B99" s="75" t="s">
+        <v>675</v>
+      </c>
+      <c r="C99" s="65" t="s">
+        <v>645</v>
+      </c>
+      <c r="D99" s="64" t="s">
+        <v>646</v>
+      </c>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
+    </row>
+    <row r="100" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="71"/>
+      <c r="B100" s="72" t="s">
+        <v>553</v>
+      </c>
+      <c r="C100" s="72"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="72"/>
+      <c r="H100" s="72"/>
+      <c r="I100" s="73"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="19"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="19"/>
+      <c r="T100" s="19"/>
+      <c r="U100" s="19"/>
+      <c r="V100" s="19"/>
+      <c r="W100" s="19"/>
+      <c r="X100" s="19"/>
+      <c r="Y100" s="19"/>
+      <c r="Z100" s="19"/>
+    </row>
+    <row r="101" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="63">
+        <f ca="1">IF(OFFSET(A101,-1,0) ="",OFFSET(A101,-2,0)+1,OFFSET(A101,-1,0)+1 )</f>
+        <v>91</v>
+      </c>
+      <c r="B101" s="64" t="s">
+        <v>675</v>
+      </c>
+      <c r="C101" s="65" t="s">
+        <v>648</v>
+      </c>
+      <c r="D101" s="64" t="s">
+        <v>676</v>
+      </c>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="67"/>
+    </row>
+    <row r="102" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="63">
+        <f t="shared" ref="A102:A105" ca="1" si="6">IF(OFFSET(A102,-1,0) ="",OFFSET(A102,-2,0)+1,OFFSET(A102,-1,0)+1 )</f>
+        <v>92</v>
+      </c>
+      <c r="B102" s="64" t="s">
+        <v>673</v>
+      </c>
+      <c r="C102" s="64" t="s">
+        <v>649</v>
+      </c>
+      <c r="D102" s="64" t="s">
         <v>560</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67"/>
+    </row>
+    <row r="103" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="63">
+        <f t="shared" ca="1" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="B103" s="64" t="s">
+        <v>677</v>
+      </c>
+      <c r="C103" s="64" t="s">
+        <v>650</v>
+      </c>
+      <c r="D103" s="64" t="s">
+        <v>651</v>
+      </c>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
+    </row>
+    <row r="104" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="63">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="B104" s="64" t="s">
+        <v>678</v>
+      </c>
+      <c r="C104" s="64" t="s">
+        <v>674</v>
+      </c>
+      <c r="D104" s="64" t="s">
+        <v>651</v>
+      </c>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="67"/>
+    </row>
+    <row r="105" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="63">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="B105" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="C105" s="64" t="s">
+        <v>652</v>
+      </c>
+      <c r="D105" s="64" t="s">
+        <v>680</v>
+      </c>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
+    </row>
+    <row r="106" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B106" s="57"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="74"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+    </row>
+    <row r="107" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="71"/>
+      <c r="B107" s="72" t="s">
         <v>552</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>635</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="25"/>
-    </row>
-    <row r="49" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>641</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" s="20" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54" s="28"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
-      <c r="V54"/>
-      <c r="W54"/>
-      <c r="X54"/>
-      <c r="Y54"/>
-      <c r="Z54"/>
-    </row>
-    <row r="55" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="41" t="s">
-        <v>561</v>
-      </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="19"/>
-      <c r="Z55" s="19"/>
-    </row>
-    <row r="56" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
-        <v>33</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
-        <f t="shared" ref="A57:A64" ca="1" si="3">IF(OFFSET(A57,-1,0) ="",OFFSET(A57,-2,0)+1,OFFSET(A57,-1,0)+1 )</f>
-        <v>34</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="D57" s="26" t="s">
+      <c r="C107" s="72"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="72"/>
+      <c r="H107" s="72"/>
+      <c r="I107" s="73"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="19"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="19"/>
+      <c r="T107" s="19"/>
+      <c r="U107" s="19"/>
+      <c r="V107" s="19"/>
+      <c r="W107" s="19"/>
+      <c r="X107" s="19"/>
+      <c r="Y107" s="19"/>
+      <c r="Z107" s="19"/>
+    </row>
+    <row r="108" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="63">
+        <v>96</v>
+      </c>
+      <c r="B108" s="64" t="s">
+        <v>692</v>
+      </c>
+      <c r="C108" s="65" t="s">
+        <v>653</v>
+      </c>
+      <c r="D108" s="64" t="s">
+        <v>685</v>
+      </c>
+      <c r="E108" s="66"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="67"/>
+      <c r="H108" s="67"/>
+      <c r="I108" s="67"/>
+      <c r="J108" s="23"/>
+    </row>
+    <row r="109" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="63">
+        <f t="shared" ref="A109:A115" ca="1" si="7">IF(OFFSET(A109,-1,0) ="",OFFSET(A109,-2,0)+1,OFFSET(A109,-1,0)+1 )</f>
+        <v>97</v>
+      </c>
+      <c r="B109" s="64" t="s">
+        <v>693</v>
+      </c>
+      <c r="C109" s="65" t="s">
+        <v>686</v>
+      </c>
+      <c r="D109" s="64" t="s">
+        <v>756</v>
+      </c>
+      <c r="E109" s="66"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="67"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="67"/>
+      <c r="J109" s="23"/>
+    </row>
+    <row r="110" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="63">
+        <f t="shared" ca="1" si="7"/>
+        <v>98</v>
+      </c>
+      <c r="B110" s="64" t="s">
+        <v>694</v>
+      </c>
+      <c r="C110" s="65" t="s">
+        <v>682</v>
+      </c>
+      <c r="D110" s="64" t="s">
+        <v>684</v>
+      </c>
+      <c r="E110" s="66"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="67"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="67"/>
+      <c r="J110" s="23"/>
+    </row>
+    <row r="111" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="63">
+        <f t="shared" ca="1" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="B111" s="64" t="s">
+        <v>695</v>
+      </c>
+      <c r="C111" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="D111" s="64" t="s">
+        <v>691</v>
+      </c>
+      <c r="E111" s="66"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="67"/>
+      <c r="H111" s="67"/>
+      <c r="I111" s="67"/>
+      <c r="J111" s="23"/>
+    </row>
+    <row r="112" spans="1:26" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="63">
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="B112" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="C112" s="65" t="s">
+        <v>763</v>
+      </c>
+      <c r="D112" s="64" t="s">
+        <v>757</v>
+      </c>
+      <c r="E112" s="66"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="67"/>
+      <c r="H112" s="67"/>
+      <c r="I112" s="67"/>
+      <c r="J112" s="23"/>
+    </row>
+    <row r="113" spans="1:26" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="63">
+        <f t="shared" ca="1" si="7"/>
+        <v>101</v>
+      </c>
+      <c r="B113" s="64" t="s">
+        <v>758</v>
+      </c>
+      <c r="C113" s="65" t="s">
+        <v>764</v>
+      </c>
+      <c r="D113" s="64" t="s">
+        <v>765</v>
+      </c>
+      <c r="E113" s="66"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="23"/>
+    </row>
+    <row r="114" spans="1:26" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="76">
+        <f t="shared" ca="1" si="7"/>
+        <v>102</v>
+      </c>
+      <c r="B114" s="64" t="s">
+        <v>762</v>
+      </c>
+      <c r="C114" s="65" t="s">
+        <v>760</v>
+      </c>
+      <c r="D114" s="64" t="s">
+        <v>761</v>
+      </c>
+      <c r="E114" s="66"/>
+      <c r="F114" s="66"/>
+      <c r="G114" s="66"/>
+      <c r="H114" s="66"/>
+      <c r="I114" s="66"/>
+      <c r="J114" s="6"/>
+    </row>
+    <row r="115" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="63">
+        <f t="shared" ca="1" si="7"/>
+        <v>103</v>
+      </c>
+      <c r="B115" s="64" t="s">
+        <v>696</v>
+      </c>
+      <c r="C115" s="65" t="s">
+        <v>654</v>
+      </c>
+      <c r="D115" s="64" t="s">
+        <v>655</v>
+      </c>
+      <c r="E115" s="66"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="67"/>
+      <c r="H115" s="67"/>
+      <c r="I115" s="67"/>
+      <c r="J115" s="23"/>
+    </row>
+    <row r="116" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="63">
+        <f ca="1">IF(OFFSET(A116,-1,0) ="",OFFSET(A116,-2,0)+1,OFFSET(A116,-1,0)+1 )</f>
+        <v>104</v>
+      </c>
+      <c r="B116" s="64" t="s">
+        <v>697</v>
+      </c>
+      <c r="C116" s="75" t="s">
+        <v>348</v>
+      </c>
+      <c r="D116" s="64" t="s">
+        <v>647</v>
+      </c>
+      <c r="E116" s="67"/>
+      <c r="F116" s="67"/>
+      <c r="G116" s="67"/>
+      <c r="H116" s="67"/>
+      <c r="I116" s="67"/>
+    </row>
+    <row r="117" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="71"/>
+      <c r="B117" s="72" t="s">
+        <v>656</v>
+      </c>
+      <c r="C117" s="72"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="72"/>
+      <c r="I117" s="73"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="19"/>
+      <c r="M117" s="19"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="19"/>
+      <c r="P117" s="19"/>
+      <c r="Q117" s="19"/>
+      <c r="R117" s="19"/>
+      <c r="S117" s="19"/>
+      <c r="T117" s="19"/>
+      <c r="U117" s="19"/>
+      <c r="V117" s="19"/>
+      <c r="W117" s="19"/>
+      <c r="X117" s="19"/>
+      <c r="Y117" s="19"/>
+      <c r="Z117" s="19"/>
+    </row>
+    <row r="118" spans="1:26" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="63">
+        <f ca="1">IF(OFFSET(A118,-1,0) ="",OFFSET(A118,-2,0)+1,OFFSET(A118,-1,0)+1 )</f>
+        <v>105</v>
+      </c>
+      <c r="B118" s="64" t="s">
+        <v>657</v>
+      </c>
+      <c r="C118" s="65" t="s">
+        <v>659</v>
+      </c>
+      <c r="D118" s="64" t="s">
+        <v>663</v>
+      </c>
+      <c r="E118" s="66"/>
+      <c r="F118" s="67"/>
+      <c r="G118" s="67"/>
+      <c r="H118" s="67"/>
+      <c r="I118" s="67"/>
+      <c r="J118" s="23"/>
+    </row>
+    <row r="119" spans="1:26" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="63">
+        <f ca="1">IF(OFFSET(A119,-1,0) ="",OFFSET(A119,-2,0)+1,OFFSET(A119,-1,0)+1 )</f>
+        <v>106</v>
+      </c>
+      <c r="B119" s="64" t="s">
+        <v>658</v>
+      </c>
+      <c r="C119" s="65" t="s">
+        <v>660</v>
+      </c>
+      <c r="D119" s="64" t="s">
+        <v>663</v>
+      </c>
+      <c r="E119" s="67"/>
+      <c r="F119" s="67"/>
+      <c r="G119" s="67"/>
+      <c r="H119" s="67"/>
+      <c r="I119" s="67"/>
+    </row>
+    <row r="120" spans="1:26" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="63">
+        <f ca="1">IF(OFFSET(A120,-1,0) ="",OFFSET(A120,-2,0)+1,OFFSET(A120,-1,0)+1 )</f>
+        <v>107</v>
+      </c>
+      <c r="B120" s="64" t="s">
+        <v>661</v>
+      </c>
+      <c r="C120" s="65" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="41" t="s">
-        <v>569</v>
-      </c>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19"/>
-      <c r="U65" s="19"/>
-      <c r="V65" s="19"/>
-      <c r="W65" s="19"/>
-      <c r="X65" s="19"/>
-      <c r="Y65" s="19"/>
-      <c r="Z65" s="19"/>
-    </row>
-    <row r="66" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
-        <v>42</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
-        <f t="shared" ref="A67:A76" ca="1" si="4">IF(OFFSET(A67,-1,0) ="",OFFSET(A67,-2,0)+1,OFFSET(A67,-1,0)+1 )</f>
-        <v>43</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>678</v>
-      </c>
-      <c r="D69" s="26" t="s">
+      <c r="D120" s="64" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>669</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>51</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>52</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="29"/>
-      <c r="B77" s="54" t="s">
-        <v>571</v>
-      </c>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="19"/>
-      <c r="T77" s="19"/>
-      <c r="U77" s="19"/>
-      <c r="V77" s="19"/>
-      <c r="W77" s="19"/>
-      <c r="X77" s="19"/>
-      <c r="Y77" s="19"/>
-      <c r="Z77" s="19"/>
-    </row>
-    <row r="78" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
-        <f ca="1">IF(OFFSET(A78,-1,0) ="",OFFSET(A78,-2,0)+1,OFFSET(A78,-1,0)+1 )</f>
-        <v>53</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
-        <f t="shared" ref="A79:A90" ca="1" si="5">IF(OFFSET(A79,-1,0) ="",OFFSET(A79,-2,0)+1,OFFSET(A79,-1,0)+1 )</f>
-        <v>54</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="D81" s="26" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>62</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>685</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>63</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>686</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>65</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="29"/>
-      <c r="B91" s="54" t="s">
-        <v>584</v>
-      </c>
-      <c r="C91" s="54"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
-      <c r="S91" s="19"/>
-      <c r="T91" s="19"/>
-      <c r="U91" s="19"/>
-      <c r="V91" s="19"/>
-      <c r="W91" s="19"/>
-      <c r="X91" s="19"/>
-      <c r="Y91" s="19"/>
-      <c r="Z91" s="19"/>
-    </row>
-    <row r="92" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A92" s="10">
-        <v>66</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="29"/>
-      <c r="B93" s="54" t="s">
-        <v>585</v>
-      </c>
-      <c r="C93" s="54"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="54"/>
-      <c r="G93" s="54"/>
-      <c r="H93" s="54"/>
-      <c r="I93" s="55"/>
-      <c r="J93" s="22"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="19"/>
-      <c r="S93" s="19"/>
-      <c r="T93" s="19"/>
-      <c r="U93" s="19"/>
-      <c r="V93" s="19"/>
-      <c r="W93" s="19"/>
-      <c r="X93" s="19"/>
-      <c r="Y93" s="19"/>
-      <c r="Z93" s="19"/>
-    </row>
-    <row r="94" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A94" s="10">
-        <v>67</v>
-      </c>
-      <c r="B94" t="s">
-        <v>586</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="29"/>
-      <c r="B95" s="54" t="s">
-        <v>594</v>
-      </c>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="55"/>
-      <c r="J95" s="22"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
-      <c r="M95" s="19"/>
-      <c r="N95" s="19"/>
-      <c r="O95" s="19"/>
-      <c r="P95" s="19"/>
-      <c r="Q95" s="19"/>
-      <c r="R95" s="19"/>
-      <c r="S95" s="19"/>
-      <c r="T95" s="19"/>
-      <c r="U95" s="19"/>
-      <c r="V95" s="19"/>
-      <c r="W95" s="19"/>
-      <c r="X95" s="19"/>
-      <c r="Y95" s="19"/>
-      <c r="Z95" s="19"/>
-    </row>
-    <row r="96" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
-        <f ca="1">IF(OFFSET(A96,-1,0) ="",OFFSET(A96,-2,0)+1,OFFSET(A96,-1,0)+1 )</f>
-        <v>68</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>699</v>
-      </c>
-      <c r="D96" s="26" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A97" s="10">
-        <f t="shared" ref="A97:A99" ca="1" si="6">IF(OFFSET(A97,-1,0) ="",OFFSET(A97,-2,0)+1,OFFSET(A97,-1,0)+1 )</f>
-        <v>69</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="D97" s="26" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A98" s="10">
-        <f t="shared" ca="1" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="D98" s="26" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="99" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A99" s="10">
-        <f t="shared" ca="1" si="6"/>
-        <v>71</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="100" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A100" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="B100" s="47"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-      <c r="Z100" s="2"/>
-    </row>
-    <row r="101" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="29"/>
-      <c r="B101" s="54" t="s">
-        <v>587</v>
-      </c>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="55"/>
-      <c r="J101" s="22"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="19"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="19"/>
-      <c r="O101" s="19"/>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="19"/>
-      <c r="S101" s="19"/>
-      <c r="T101" s="19"/>
-      <c r="U101" s="19"/>
-      <c r="V101" s="19"/>
-      <c r="W101" s="19"/>
-      <c r="X101" s="19"/>
-      <c r="Y101" s="19"/>
-      <c r="Z101" s="19"/>
-    </row>
-    <row r="102" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A102" s="10">
-        <v>72</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="E102" s="4"/>
-      <c r="J102" s="23"/>
-    </row>
-    <row r="103" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A103" s="10">
-        <f t="shared" ref="A103:A108" ca="1" si="7">IF(OFFSET(A103,-1,0) ="",OFFSET(A103,-2,0)+1,OFFSET(A103,-1,0)+1 )</f>
-        <v>73</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="E103" s="4"/>
-      <c r="J103" s="23"/>
-    </row>
-    <row r="104" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A104" s="10">
-        <f t="shared" ca="1" si="7"/>
-        <v>74</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="E104" s="4"/>
-      <c r="J104" s="23"/>
-    </row>
-    <row r="105" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A105" s="10">
-        <f t="shared" ca="1" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="E105" s="4"/>
-      <c r="J105" s="23"/>
-    </row>
-    <row r="106" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A106" s="10">
-        <f t="shared" ca="1" si="7"/>
-        <v>76</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>712</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="E106" s="4"/>
-      <c r="J106" s="23"/>
-    </row>
-    <row r="107" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="10">
-        <f t="shared" ca="1" si="7"/>
-        <v>77</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>715</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="E107" s="4"/>
-      <c r="J107" s="23"/>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A108" s="10">
-        <f ca="1">IF(OFFSET(A108,-1,0) ="",OFFSET(A108,-2,0)+1,OFFSET(A108,-1,0)+1 )</f>
-        <v>78</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="D108" s="26" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A109" s="29"/>
-      <c r="B109" s="54" t="s">
-        <v>718</v>
-      </c>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="55"/>
-      <c r="J109" s="22"/>
-      <c r="K109" s="19"/>
-      <c r="L109" s="19"/>
-      <c r="M109" s="19"/>
-      <c r="N109" s="19"/>
-      <c r="O109" s="19"/>
-      <c r="P109" s="19"/>
-      <c r="Q109" s="19"/>
-      <c r="R109" s="19"/>
-      <c r="S109" s="19"/>
-      <c r="T109" s="19"/>
-      <c r="U109" s="19"/>
-      <c r="V109" s="19"/>
-      <c r="W109" s="19"/>
-      <c r="X109" s="19"/>
-      <c r="Y109" s="19"/>
-      <c r="Z109" s="19"/>
-    </row>
-    <row r="110" spans="1:26" ht="66" x14ac:dyDescent="0.25">
-      <c r="A110" s="10">
-        <f ca="1">IF(OFFSET(A110,-1,0) ="",OFFSET(A110,-2,0)+1,OFFSET(A110,-1,0)+1 )</f>
-        <v>79</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>721</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="E110" s="4"/>
-      <c r="J110" s="23"/>
-    </row>
-    <row r="111" spans="1:26" ht="66" x14ac:dyDescent="0.25">
-      <c r="A111" s="10">
-        <f ca="1">IF(OFFSET(A111,-1,0) ="",OFFSET(A111,-2,0)+1,OFFSET(A111,-1,0)+1 )</f>
-        <v>80</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>722</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A112" s="10">
-        <f ca="1">IF(OFFSET(A112,-1,0) ="",OFFSET(A112,-2,0)+1,OFFSET(A112,-1,0)+1 )</f>
-        <v>81</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>724</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>726</v>
-      </c>
+      <c r="E120" s="67"/>
+      <c r="F120" s="67"/>
+      <c r="G120" s="67"/>
+      <c r="H120" s="67"/>
+      <c r="I120" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="B109:I109"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="B91:I91"/>
-    <mergeCell ref="B93:I93"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="B95:I95"/>
+    <mergeCell ref="B117:I117"/>
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="B98:I98"/>
+    <mergeCell ref="A106:I106"/>
+    <mergeCell ref="B107:I107"/>
+    <mergeCell ref="B100:I100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mid term - Nguyen Huu Tu/Test Design Techniques_Nguyen Huu Tu_.xlsx
+++ b/mid term - Nguyen Huu Tu/Test Design Techniques_Nguyen Huu Tu_.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRookies\Rookies\mid term - Nguyen Huu Tu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B651AA-22D2-4EDB-AC26-FCD0CA884679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100350BD-6554-44A5-8919-71DF8CAF72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 1" sheetId="1" r:id="rId1"/>
     <sheet name="Assignment 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Assigment 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Assigment 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Assignment 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Assignment 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Assignment 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="770">
   <si>
     <t>ID</t>
   </si>
@@ -1766,28 +1767,10 @@
     <t>Check scroll up and down</t>
   </si>
   <si>
-    <t>Check the number of provinces</t>
-  </si>
-  <si>
-    <t>Check the order of provinces</t>
-  </si>
-  <si>
     <t>District</t>
   </si>
   <si>
     <t>Ward</t>
-  </si>
-  <si>
-    <t>Check the number of districts</t>
-  </si>
-  <si>
-    <t>Check the order of districts</t>
-  </si>
-  <si>
-    <t>Check the number of wards</t>
-  </si>
-  <si>
-    <t>Check the order of wards</t>
   </si>
   <si>
     <t>When selecting a ward</t>
@@ -1854,22 +1837,10 @@
     <t>Error message 2: "Please enter your Phone number" is displayed</t>
   </si>
   <si>
-    <t>Enter "12345" into this box</t>
-  </si>
-  <si>
-    <t>Error message "Name should contain alphanumeric characters." is displayed</t>
-  </si>
-  <si>
     <t>Error message 1: "The length of phone number should be 10 characters" is displayed</t>
   </si>
   <si>
-    <t>Alphabetic characters are not allowed to be entered</t>
-  </si>
-  <si>
     <t>Special characters are not allowed to be entered</t>
-  </si>
-  <si>
-    <t>Alphabetic and special characters are not allowed to be entered</t>
   </si>
   <si>
     <t>Only numeric characters are entered</t>
@@ -1924,15 +1895,6 @@
     <t>Error message "Address should not contain special characters." is displayed</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter "122345!@#$" into this field </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter "aqwerfg!@#$" into this field </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter "123aqwerfg!@#$" into this field </t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter "12nguyentrai" into this field </t>
   </si>
   <si>
@@ -1954,13 +1916,7 @@
     <t>It is not allow to enter data from keyboard</t>
   </si>
   <si>
-    <t xml:space="preserve">Click drop button and then check </t>
-  </si>
-  <si>
     <t>Display a provinces list below the box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the box and then check </t>
   </si>
   <si>
     <t>1. Click into the drop button
@@ -1971,14 +1927,6 @@
   </si>
   <si>
     <t>1. Click into the drop button
-2. Check the number of provinces in this list</t>
-  </si>
-  <si>
-    <t>1. Click into the drop button
-2. Check sorting provinces in this list</t>
-  </si>
-  <si>
-    <t>1. Click into the drop button
 2. Select Hanoi in this list</t>
   </si>
   <si>
@@ -2004,25 +1952,8 @@
     <t>All districts in the list are in Hanoi</t>
   </si>
   <si>
-    <t>The district list contains all 30 districts of Hanoi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Select a province "Hanoi"
-2. Check the order of the list of districts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Select a province "Hanoi"
-2. Check the number of districts in the list </t>
-  </si>
-  <si>
     <t>1. Select a province "Hanoi"
 2. Check districts displayed in the list</t>
-  </si>
-  <si>
-    <t>Districts are sorted in the alphabetic order from top to bottom</t>
-  </si>
-  <si>
-    <t>Ho Chi Minh city is on the top of the list and other provinces are sorted in the alphabetic order from top to bottom</t>
   </si>
   <si>
     <t>Display "Thanh Xuan" in this box</t>
@@ -2070,20 +2001,6 @@
     <t>All ward in the list are in Thanh Xuan, Hanoi</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Select a province "Hanoi" and district "Thanh Xuan"
-2. Check the number of districts in the list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Select a province "Hanoi" and district "Thanh Xuan"
-2. Check the order of the list of districts </t>
-  </si>
-  <si>
-    <t>The district list contains all 11 wards of Thanh Xuan Hanoi</t>
-  </si>
-  <si>
-    <t>Wards are sorted in the alphabetic order from top to bottom</t>
-  </si>
-  <si>
     <t>1. Select "Hanoi" in province field and "Thanh Xuan" in district field
 2. Click into this box
 3. Select "Thanh Xuan Nam" in this field</t>
@@ -2135,13 +2052,6 @@
   </si>
   <si>
     <t>Click "Office" button and then "Home" button</t>
-  </si>
-  <si>
-    <t>1. Enter valid data for all fields
-2. click button "Save"</t>
-  </si>
-  <si>
-    <t>Click button "Save"</t>
   </si>
   <si>
     <t>Error messages "Mandatory Field" are displayed below required fields</t>
@@ -2230,9 +2140,6 @@
     <t>"Home" button changes color lighter and "Office " button returns unchecked</t>
   </si>
   <si>
-    <t xml:space="preserve">There are enough all 63 provinces of Vietnam </t>
-  </si>
-  <si>
     <t>1. Enter valid data for all mandatory fields and select "Home"
 2. click button "Save"</t>
   </si>
@@ -2242,9 +2149,6 @@
   </si>
   <si>
     <t>A new address is created with the label of "Home"</t>
-  </si>
-  <si>
-    <t>A new address is created and return "Address book" screen</t>
   </si>
   <si>
     <t>1. Enter valid data for only mandatory fields 
@@ -2268,9 +2172,6 @@
     <t>A new address is created with the label of "Office"</t>
   </si>
   <si>
-    <t>Verify adding successfully when filling in all fields with valid input data</t>
-  </si>
-  <si>
     <t>Verify adding successfully when just filling in all required fields with valid input data and not selecting "Office" and "Home"</t>
   </si>
   <si>
@@ -2313,22 +2214,10 @@
     <t>Verify when full name consists of alphanumeric characters</t>
   </si>
   <si>
-    <t>Verify when full name consists of alphabetic and special character</t>
-  </si>
-  <si>
-    <t>Verify when full name consists of numeric and special character</t>
-  </si>
-  <si>
-    <t>Verify when full name consists of alphabetic, numeric and special character</t>
-  </si>
-  <si>
     <t>Verify when it is copied and pasted</t>
   </si>
   <si>
     <t>Verify when clicking button delete</t>
-  </si>
-  <si>
-    <t>Verify when full name consists of only special/html/code characters</t>
   </si>
   <si>
     <t>Check copy &amp; paste into the box</t>
@@ -2353,16 +2242,7 @@
     <t>Verify when the length is over 10 numeric characters</t>
   </si>
   <si>
-    <t>Verify when consisting of both numeric and alphabetic characters</t>
-  </si>
-  <si>
-    <t>Verify when it consists of both numeric and special characters</t>
-  </si>
-  <si>
     <t>Verify when it consists of both special and alphabetic characters</t>
-  </si>
-  <si>
-    <t>Verify when it consists of numeric, special and alphabetic characters</t>
   </si>
   <si>
     <t>Verify when it consists of only alpabetic characters</t>
@@ -2378,12 +2258,6 @@
     <t>Display only numbers</t>
   </si>
   <si>
-    <t>Verify when it consists of numeric, special/html/code and alphabetic characters</t>
-  </si>
-  <si>
-    <t>Verify when it consists of only special/html/code characters</t>
-  </si>
-  <si>
     <t>Verify when address box is not entered data</t>
   </si>
   <si>
@@ -2409,9 +2283,6 @@
   </si>
   <si>
     <t xml:space="preserve">Enter "SELECT * FROM Users WHERE Username = 'abc' " into this field </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter "getName(user1.name)" into this field </t>
   </si>
   <si>
     <t>1. Copy a text "12 trieu khuc"
@@ -2501,6 +2372,181 @@
   </si>
   <si>
     <t>A new address is created with a new full name and the same data for other fields</t>
+  </si>
+  <si>
+    <t>Click drop button and then check data showing</t>
+  </si>
+  <si>
+    <t>Click the box and then check data showing</t>
+  </si>
+  <si>
+    <t>1. Do not enter data for all fields
+2. Click button "Save"</t>
+  </si>
+  <si>
+    <t>1. Enter data for fields
+2. Click into this button</t>
+  </si>
+  <si>
+    <t>1. Select a province "Hanoi" and district "Thanh Xuan"
+2. Check the number of wards in the list 
+3. Check the order of wards in the list</t>
+  </si>
+  <si>
+    <t>The ward list contains all 11 wards of Thanh Xuan Hanoi and it is sorted in the alphabetic order from top to bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select a province "Hanoi"
+2. Check the number of districts in the list 
+2. Check the order of the list of districts </t>
+  </si>
+  <si>
+    <t>The district list contains all 30 districts of Hanoi and it is sorted in the alphabetic order from top to bottom</t>
+  </si>
+  <si>
+    <t>Check the number, order of districts</t>
+  </si>
+  <si>
+    <t>Check the number, order of wards</t>
+  </si>
+  <si>
+    <t>Check the number, order of provinces</t>
+  </si>
+  <si>
+    <t>1. Click into the drop button
+2. Check the number of provinces in this list
+3. Check sorting provinces in this list</t>
+  </si>
+  <si>
+    <t>There are enough all 63 provinces of Vietnam; Ho Chi Minh city is on the top of the list and other provinces are sorted in the alphabetic order from top to bottom</t>
+  </si>
+  <si>
+    <t>Verify when it consists of special characters</t>
+  </si>
+  <si>
+    <t>Verify when full name consists of special character</t>
+  </si>
+  <si>
+    <t>1. Click into full name field
+2. Enter "1234" into this box
+3. Then continue entering "abcd" into this box
+4. Then continue entering "!@#$" into this box</t>
+  </si>
+  <si>
+    <t>Error message "Name should not contain special characters." is displayed and showing "1234abcd" in this box</t>
+  </si>
+  <si>
+    <t>Verify when full name consists of only html characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click into full name field
+2. Enter "&lt;head&gt;" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click into full name field
+2. Enter "12345" </t>
+  </si>
+  <si>
+    <t>1. Click into phone number field
+2. Enter "1234" to this field 
+3. Continue entering "abc" into this field
+4. Continue entering "!@#" into this field</t>
+  </si>
+  <si>
+    <t>Alphabetic and special characters are not allowed to be entered and display "1234" in phone number field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when it consists of only SQL </t>
+  </si>
+  <si>
+    <t>1. Click into address field
+2. Enter "1223" into this field
+3. Continue entering "abcdf" into this field
+4. Continue entering "!@#$" into this field</t>
+  </si>
+  <si>
+    <t>Error message "Address should not contain special characters." is displayed and showing "1223abcdf" in address field</t>
+  </si>
+  <si>
+    <t>Verify when it consists of only html code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter "&lt;head&gt;" into this field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check when click button X on pop-up </t>
+  </si>
+  <si>
+    <t>Check when click button cancel on pop-up</t>
+  </si>
+  <si>
+    <t>Precondition: create successfully an address
+1. Click "Edit" in this address row 
+2. Click "Delete" button on the top right corner of edit screen
+3. Click button X</t>
+  </si>
+  <si>
+    <t>Escape pop-up and return edit screen</t>
+  </si>
+  <si>
+    <t>Precondition: create successfully an address
+1. Click "Edit" in this address row 
+2. Click "Delete" button on the top right corner of edit screen
+3. Click button cancel</t>
+  </si>
+  <si>
+    <t>Precondition: create successfully an address
+1. Click "Edit" in this address row 
+2. Click "Delete" button on the top right corner of edit screen
+3. Press ESC key from keyboard</t>
+  </si>
+  <si>
+    <t>1. Select a default address which is set before
+2. Click "Edit" in this address row 
+3. Click "Delete" on the top right corner of edit screen
+4. Click "Delete" button on pop-up</t>
+  </si>
+  <si>
+    <t>1. Select a normal address which is set before
+2. Click "Edit" in this address row 
+3. Click "Delete" on the top right corner of edit screen
+4. Click "Delete" button on pop-up</t>
+  </si>
+  <si>
+    <t>Error masage "You can not delete your default address" is displayed</t>
+  </si>
+  <si>
+    <t>There is no error masage displayed and the address is not displayed in address list</t>
+  </si>
+  <si>
+    <t>Precondition: create successfully an address
+1. Click "Edit" in this address row 
+2. Click "Delete" button on the top right corner of edit screen
+3. Check pop-up's content</t>
+  </si>
+  <si>
+    <t>Check when pressing ESC from keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check displaying delete pop-up when click delete and check pop-up content </t>
+  </si>
+  <si>
+    <t>Displaying "Delete" pop-up and it has the same data with address in edit screen</t>
+  </si>
+  <si>
+    <t>Check fail to delete when selecting a default address</t>
+  </si>
+  <si>
+    <t>Check delete successfully when selecting a normal address</t>
+  </si>
+  <si>
+    <t>Check delete successfully when converting a default address into a normal one</t>
+  </si>
+  <si>
+    <t>1. Select a default address and change it into a normal one
+2. Click "Edit" in this address row 
+3. Click "Delete" on the top right corner of edit screen
+4. Click "Delete" button on pop-up</t>
   </si>
 </sst>
 </file>
@@ -2829,6 +2875,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2860,15 +2949,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2883,31 +2963,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2916,15 +2971,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3206,17 +3252,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -3251,17 +3297,17 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -3326,17 +3372,17 @@
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="58"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -3401,17 +3447,17 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -3476,17 +3522,17 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -3521,17 +3567,17 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -3596,17 +3642,17 @@
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -3671,17 +3717,17 @@
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -3746,17 +3792,17 @@
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -3836,17 +3882,17 @@
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="46"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -3866,17 +3912,17 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -4001,17 +4047,17 @@
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="43"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -4106,17 +4152,17 @@
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="46"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="61"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -4136,17 +4182,17 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="43"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -4211,17 +4257,17 @@
       <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="43"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="58"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -7158,17 +7204,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -7189,16 +7235,16 @@
     </row>
     <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="22"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -7564,17 +7610,17 @@
       <c r="Z20"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="50"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
@@ -7658,17 +7704,17 @@
       <c r="Z25"/>
     </row>
     <row r="26" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="22"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
@@ -7919,17 +7965,17 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="49"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="64"/>
       <c r="J41" s="22"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -8310,17 +8356,17 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="49"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="64"/>
       <c r="J63" s="22"/>
       <c r="K63" s="19"/>
       <c r="L63" s="19"/>
@@ -8654,17 +8700,17 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="B85" s="48"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="49"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="63"/>
+      <c r="I85" s="64"/>
       <c r="J85" s="22"/>
       <c r="K85" s="19"/>
       <c r="L85" s="19"/>
@@ -8743,17 +8789,17 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="B90" s="48"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="49"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="64"/>
       <c r="J90" s="22"/>
       <c r="K90" s="19"/>
       <c r="L90" s="19"/>
@@ -8999,17 +9045,17 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="48"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="49"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="63"/>
+      <c r="F106" s="63"/>
+      <c r="G106" s="63"/>
+      <c r="H106" s="63"/>
+      <c r="I106" s="64"/>
       <c r="J106" s="22"/>
       <c r="K106" s="19"/>
       <c r="L106" s="19"/>
@@ -9058,17 +9104,17 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A109" s="47" t="s">
+      <c r="A109" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="B109" s="48"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="49"/>
+      <c r="B109" s="63"/>
+      <c r="C109" s="63"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="22"/>
       <c r="K109" s="19"/>
       <c r="L109" s="19"/>
@@ -9117,17 +9163,17 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A112" s="47" t="s">
+      <c r="A112" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="B112" s="48"/>
-      <c r="C112" s="48"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="48"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="48"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="49"/>
+      <c r="B112" s="63"/>
+      <c r="C112" s="63"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="63"/>
+      <c r="F112" s="63"/>
+      <c r="G112" s="63"/>
+      <c r="H112" s="63"/>
+      <c r="I112" s="64"/>
       <c r="J112" s="22"/>
       <c r="K112" s="19"/>
       <c r="L112" s="19"/>
@@ -9293,17 +9339,17 @@
       </c>
     </row>
     <row r="121" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="44" t="s">
+      <c r="A121" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="B121" s="44"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="44"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="44"/>
-      <c r="I121" s="53"/>
+      <c r="B121" s="59"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="59"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="59"/>
+      <c r="H121" s="59"/>
+      <c r="I121" s="68"/>
       <c r="J121" s="21"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -9540,17 +9586,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -9586,17 +9632,17 @@
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="59" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
       <c r="J4" s="21"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -9817,17 +9863,17 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="59" t="s">
         <v>518</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="53"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="68"/>
       <c r="J17" s="21"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -9891,17 +9937,17 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="53"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="68"/>
       <c r="J21" s="21"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -9995,17 +10041,17 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="59" t="s">
         <v>532</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="46"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="21"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -10121,17 +10167,17 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="59" t="s">
         <v>476</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="46"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
       <c r="J33" s="21"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -10419,10 +10465,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DED832-995C-42D4-A46B-4BE115A850FA}">
-  <dimension ref="A1:Z120"/>
+  <dimension ref="A1:Z108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10430,35 +10476,35 @@
     <col min="1" max="1" width="8" style="10" customWidth="1"/>
     <col min="2" max="2" width="36.77734375" style="23" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="42.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="10" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="42" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="9"/>
@@ -10480,17 +10526,17 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="21"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -10510,17 +10556,17 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="74"/>
       <c r="J3" s="22"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -10540,2559 +10586,2469 @@
       <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63">
+      <c r="A4" s="44">
         <v>1</v>
       </c>
-      <c r="B4" s="64" t="s">
-        <v>690</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>554</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>555</v>
-      </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>549</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
       <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63">
-        <f t="shared" ref="A5:A20" ca="1" si="0">IF(OFFSET(A5,-1,0) ="",OFFSET(A5,-2,0)+1,OFFSET(A5,-1,0)+1 )</f>
+      <c r="A5" s="44">
+        <f t="shared" ref="A5:A18" ca="1" si="0">IF(OFFSET(A5,-1,0) ="",OFFSET(A5,-2,0)+1,OFFSET(A5,-1,0)+1 )</f>
         <v>2</v>
       </c>
-      <c r="B5" s="64" t="s">
-        <v>698</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>556</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>557</v>
-      </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
+      <c r="B5" s="45" t="s">
+        <v>667</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>551</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63">
+      <c r="A6" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>699</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>558</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>562</v>
-      </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
+      <c r="B6" s="45" t="s">
+        <v>668</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>552</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63">
+      <c r="A7" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="64" t="s">
-        <v>700</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>559</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
+      <c r="B7" s="45" t="s">
+        <v>669</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63">
+      <c r="A8" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="64" t="s">
-        <v>701</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>561</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
+      <c r="B8" s="45" t="s">
+        <v>670</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>555</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63">
+      <c r="A9" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>702</v>
-      </c>
-      <c r="C9" s="65" t="s">
+      <c r="B9" s="45" t="s">
+        <v>671</v>
+      </c>
+      <c r="C9" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="D9" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
+      <c r="D9" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63">
+      <c r="A10" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="64" t="s">
-        <v>703</v>
-      </c>
-      <c r="C10" s="65" t="s">
+      <c r="B10" s="45" t="s">
+        <v>672</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="D10" s="64" t="s">
-        <v>562</v>
-      </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
+      <c r="D10" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
       <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63">
+      <c r="A11" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>687</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>688</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>689</v>
-      </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
+      <c r="B11" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>658</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63">
+      <c r="A12" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="64" t="s">
-        <v>713</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>714</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>715</v>
-      </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
+      <c r="B12" s="45" t="s">
+        <v>678</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>679</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63">
+      <c r="A13" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="64" t="s">
-        <v>704</v>
-      </c>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="45" t="s">
+        <v>673</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="D13" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
+      <c r="D13" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63">
+      <c r="A14" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="64" t="s">
-        <v>705</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>569</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>570</v>
-      </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
+      <c r="B14" s="45" t="s">
+        <v>674</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>744</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63">
+      <c r="A15" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="64" t="s">
-        <v>712</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>563</v>
-      </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
+      <c r="B15" s="45" t="s">
+        <v>742</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>743</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>557</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63">
+      <c r="A16" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="64" t="s">
-        <v>706</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>564</v>
-      </c>
-      <c r="D16" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
+      <c r="B16" s="45" t="s">
+        <v>675</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63">
+      <c r="A17" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="64" t="s">
-        <v>707</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>342</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>563</v>
-      </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
+      <c r="B17" s="45" t="s">
+        <v>739</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>740</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>741</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63">
+      <c r="A18" s="44">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="64" t="s">
-        <v>708</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>343</v>
-      </c>
-      <c r="D18" s="64" t="s">
+      <c r="B18" s="45" t="s">
+        <v>676</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44">
+        <f ca="1">IF(OFFSET(A19,-1,0) ="",OFFSET(A19,-2,0)+1,OFFSET(A19,-1,0)+1 )</f>
+        <v>16</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>677</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50" t="s">
+        <v>560</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+    </row>
+    <row r="21" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44">
+        <v>19</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="44">
+        <f ca="1">IF(OFFSET(A22,-1,0) ="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1 )</f>
+        <v>20</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>681</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>562</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44">
+        <f t="shared" ref="A23:A30" ca="1" si="1">IF(OFFSET(A23,-1,0) ="",OFFSET(A23,-2,0)+1,OFFSET(A23,-1,0)+1 )</f>
+        <v>21</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="D23" s="45" t="s">
         <v>563</v>
       </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>709</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>345</v>
-      </c>
-      <c r="D19" s="64" t="s">
-        <v>563</v>
-      </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>710</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="D20" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="63">
-        <f ca="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
-        <v>18</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>711</v>
-      </c>
-      <c r="C21" s="65" t="s">
-        <v>300</v>
-      </c>
-      <c r="D21" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="23"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
-      <c r="B22" s="69" t="s">
-        <v>566</v>
-      </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-    </row>
-    <row r="23" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63">
-        <v>19</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>690</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>554</v>
-      </c>
-      <c r="D23" s="64" t="s">
-        <v>567</v>
-      </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="23"/>
     </row>
     <row r="24" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63">
-        <f ca="1">IF(OFFSET(A24,-1,0) ="",OFFSET(A24,-2,0)+1,OFFSET(A24,-1,0)+1 )</f>
-        <v>20</v>
-      </c>
-      <c r="B24" s="64" t="s">
-        <v>716</v>
-      </c>
-      <c r="C24" s="65" t="s">
-        <v>556</v>
-      </c>
-      <c r="D24" s="64" t="s">
-        <v>568</v>
-      </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63">
-        <f t="shared" ref="A25:A36" ca="1" si="1">IF(OFFSET(A25,-1,0) ="",OFFSET(A25,-2,0)+1,OFFSET(A25,-1,0)+1 )</f>
-        <v>21</v>
-      </c>
-      <c r="B25" s="64" t="s">
-        <v>718</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>380</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>571</v>
-      </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="23"/>
-    </row>
-    <row r="26" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63">
+      <c r="A24" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
-      <c r="B26" s="64" t="s">
-        <v>717</v>
-      </c>
-      <c r="C26" s="65" t="s">
+      <c r="B24" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="C24" s="46" t="s">
         <v>381</v>
       </c>
-      <c r="D26" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63">
+      <c r="D24" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>23</v>
       </c>
-      <c r="B27" s="64" t="s">
-        <v>719</v>
-      </c>
-      <c r="C27" s="65" t="s">
+      <c r="B25" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="C25" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="D27" s="64" t="s">
-        <v>571</v>
-      </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="23"/>
-    </row>
-    <row r="28" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63">
+      <c r="D25" s="45" t="s">
+        <v>563</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="44">
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
-      <c r="B28" s="64" t="s">
-        <v>720</v>
-      </c>
-      <c r="C28" s="65" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" s="64" t="s">
-        <v>572</v>
-      </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="63">
+      <c r="B26" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>745</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="22"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+    </row>
+    <row r="27" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
-      <c r="B29" s="64" t="s">
-        <v>721</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>240</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>573</v>
-      </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="22"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-    </row>
-    <row r="30" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="63">
+      <c r="B27" s="45" t="s">
+        <v>747</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>698</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>564</v>
+      </c>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>26</v>
       </c>
-      <c r="B30" s="64" t="s">
-        <v>722</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>242</v>
-      </c>
-      <c r="D30" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="22"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-    </row>
-    <row r="31" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="63">
+      <c r="B28" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>565</v>
+      </c>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="27"/>
+    </row>
+    <row r="29" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
-      <c r="B31" s="64" t="s">
-        <v>728</v>
-      </c>
-      <c r="C31" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="22"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-    </row>
-    <row r="32" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="63">
+      <c r="B29" s="45" t="s">
+        <v>687</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>688</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>689</v>
+      </c>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="27"/>
+    </row>
+    <row r="30" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="44">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
-      <c r="B32" s="64" t="s">
-        <v>724</v>
-      </c>
-      <c r="C32" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="D32" s="64" t="s">
-        <v>572</v>
-      </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="27"/>
-    </row>
-    <row r="33" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="63">
-        <f t="shared" ca="1" si="1"/>
+      <c r="B30" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>566</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="27"/>
+    </row>
+    <row r="31" spans="1:26" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="44">
+        <f ca="1">IF(OFFSET(A31,-1,0) ="",OFFSET(A31,-2,0)+1,OFFSET(A31,-1,0)+1 )</f>
         <v>29</v>
       </c>
-      <c r="B33" s="64" t="s">
-        <v>729</v>
-      </c>
-      <c r="C33" s="65" t="s">
-        <v>738</v>
-      </c>
-      <c r="D33" s="64" t="s">
-        <v>573</v>
-      </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="27"/>
+      <c r="B31" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>567</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="28"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+    </row>
+    <row r="32" spans="1:26" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="44">
+        <f ca="1">IF(OFFSET(A32,-1,0) ="",OFFSET(A32,-2,0)+1,OFFSET(A32,-1,0)+1 )</f>
+        <v>30</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="28"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="49" t="s">
+        <v>535</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
     </row>
     <row r="34" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="63">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B34" s="64" t="s">
-        <v>687</v>
-      </c>
-      <c r="C34" s="65" t="s">
-        <v>263</v>
-      </c>
-      <c r="D34" s="64" t="s">
-        <v>575</v>
-      </c>
-      <c r="E34" s="66"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="27"/>
+      <c r="A34" s="44">
+        <v>35</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="E34" s="47"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="23"/>
     </row>
     <row r="35" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B35" s="64" t="s">
-        <v>725</v>
-      </c>
-      <c r="C35" s="65" t="s">
-        <v>726</v>
-      </c>
-      <c r="D35" s="64" t="s">
-        <v>727</v>
-      </c>
-      <c r="E35" s="66"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="27"/>
+      <c r="A35" s="44">
+        <f ca="1">IF(OFFSET(A35,-1,0) ="",OFFSET(A35,-2,0)+1,OFFSET(A35,-1,0)+1 )</f>
+        <v>36</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>690</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>570</v>
+      </c>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="25"/>
     </row>
     <row r="36" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="63">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B36" s="64" t="s">
-        <v>534</v>
-      </c>
-      <c r="C36" s="65" t="s">
-        <v>576</v>
-      </c>
-      <c r="D36" s="64" t="s">
-        <v>578</v>
-      </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="27"/>
-    </row>
-    <row r="37" spans="1:26" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63">
-        <f ca="1">IF(OFFSET(A37,-1,0) ="",OFFSET(A37,-2,0)+1,OFFSET(A37,-1,0)+1 )</f>
-        <v>33</v>
-      </c>
-      <c r="B37" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="65" t="s">
-        <v>577</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>578</v>
-      </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="28"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-    </row>
-    <row r="38" spans="1:26" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63">
-        <f ca="1">IF(OFFSET(A38,-1,0) ="",OFFSET(A38,-2,0)+1,OFFSET(A38,-1,0)+1 )</f>
-        <v>34</v>
-      </c>
-      <c r="B38" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="C38" s="65" t="s">
-        <v>409</v>
-      </c>
-      <c r="D38" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="28"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="68" t="s">
-        <v>535</v>
-      </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-    </row>
-    <row r="40" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="63">
-        <v>35</v>
-      </c>
-      <c r="B40" s="64" t="s">
-        <v>690</v>
-      </c>
-      <c r="C40" s="65" t="s">
-        <v>554</v>
-      </c>
-      <c r="D40" s="64" t="s">
-        <v>579</v>
-      </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="23"/>
-    </row>
-    <row r="41" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63">
-        <f ca="1">IF(OFFSET(A41,-1,0) ="",OFFSET(A41,-2,0)+1,OFFSET(A41,-1,0)+1 )</f>
-        <v>36</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>730</v>
-      </c>
-      <c r="C41" s="65" t="s">
-        <v>556</v>
-      </c>
-      <c r="D41" s="64" t="s">
-        <v>580</v>
-      </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="25"/>
-    </row>
-    <row r="42" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63">
-        <f t="shared" ref="A42:A56" ca="1" si="2">IF(OFFSET(A42,-1,0) ="",OFFSET(A42,-2,0)+1,OFFSET(A42,-1,0)+1 )</f>
+      <c r="A36" s="44">
+        <f t="shared" ref="A36:A48" ca="1" si="2">IF(OFFSET(A36,-1,0) ="",OFFSET(A36,-2,0)+1,OFFSET(A36,-1,0)+1 )</f>
         <v>37</v>
       </c>
-      <c r="B42" s="64" t="s">
-        <v>731</v>
-      </c>
-      <c r="C42" s="65" t="s">
-        <v>581</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>584</v>
-      </c>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-    </row>
-    <row r="43" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="63">
+      <c r="B36" s="45" t="s">
+        <v>691</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>571</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>574</v>
+      </c>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+    </row>
+    <row r="37" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="44">
         <f t="shared" ca="1" si="2"/>
         <v>38</v>
       </c>
-      <c r="B43" s="64" t="s">
-        <v>732</v>
-      </c>
-      <c r="C43" s="65" t="s">
-        <v>582</v>
-      </c>
-      <c r="D43" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-    </row>
-    <row r="44" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="63">
+      <c r="B37" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>572</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+    </row>
+    <row r="38" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="44">
         <f t="shared" ca="1" si="2"/>
         <v>39</v>
       </c>
-      <c r="B44" s="64" t="s">
-        <v>733</v>
-      </c>
-      <c r="C44" s="65" t="s">
-        <v>594</v>
-      </c>
-      <c r="D44" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-    </row>
-    <row r="45" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="63">
+      <c r="B38" s="45" t="s">
+        <v>693</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>581</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+    </row>
+    <row r="39" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="44">
         <f t="shared" ca="1" si="2"/>
         <v>40</v>
       </c>
-      <c r="B45" s="64" t="s">
-        <v>734</v>
-      </c>
-      <c r="C45" s="65" t="s">
-        <v>585</v>
-      </c>
-      <c r="D45" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-    </row>
-    <row r="46" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="63">
+      <c r="B39" s="45" t="s">
+        <v>694</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>575</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+    </row>
+    <row r="40" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="44">
         <f t="shared" ca="1" si="2"/>
         <v>41</v>
       </c>
-      <c r="B46" s="64" t="s">
-        <v>735</v>
-      </c>
-      <c r="C46" s="65" t="s">
-        <v>586</v>
-      </c>
-      <c r="D46" s="64" t="s">
-        <v>584</v>
-      </c>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-    </row>
-    <row r="47" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="63">
+      <c r="B40" s="45" t="s">
+        <v>695</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>576</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>574</v>
+      </c>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+    </row>
+    <row r="41" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="44">
         <f t="shared" ca="1" si="2"/>
         <v>42</v>
       </c>
-      <c r="B47" s="64" t="s">
-        <v>724</v>
-      </c>
-      <c r="C47" s="65" t="s">
-        <v>587</v>
-      </c>
-      <c r="D47" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-    </row>
-    <row r="48" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="63">
+      <c r="B41" s="45" t="s">
+        <v>686</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>577</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+    </row>
+    <row r="42" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="44">
         <f t="shared" ca="1" si="2"/>
         <v>43</v>
       </c>
-      <c r="B48" s="64" t="s">
-        <v>736</v>
-      </c>
-      <c r="C48" s="65" t="s">
-        <v>588</v>
-      </c>
-      <c r="D48" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-    </row>
-    <row r="49" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="63">
+      <c r="B42" s="45" t="s">
+        <v>696</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>578</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+    </row>
+    <row r="43" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="44">
         <f t="shared" ca="1" si="2"/>
         <v>44</v>
       </c>
-      <c r="B49" s="64" t="s">
-        <v>729</v>
-      </c>
-      <c r="C49" s="65" t="s">
-        <v>739</v>
-      </c>
-      <c r="D49" s="64" t="s">
-        <v>590</v>
-      </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="25"/>
-    </row>
-    <row r="50" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="63">
+      <c r="B43" s="45" t="s">
+        <v>750</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>751</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>580</v>
+      </c>
+      <c r="E43" s="47"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="25"/>
+    </row>
+    <row r="44" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="44">
         <f t="shared" ca="1" si="2"/>
         <v>45</v>
       </c>
-      <c r="B50" s="64" t="s">
-        <v>737</v>
-      </c>
-      <c r="C50" s="65" t="s">
-        <v>589</v>
-      </c>
-      <c r="D50" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-    </row>
-    <row r="51" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="63">
+      <c r="B44" s="45" t="s">
+        <v>697</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>579</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+    </row>
+    <row r="45" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="44">
         <f t="shared" ca="1" si="2"/>
         <v>46</v>
       </c>
-      <c r="B51" s="64" t="s">
-        <v>721</v>
-      </c>
-      <c r="C51" s="65" t="s">
-        <v>591</v>
-      </c>
-      <c r="D51" s="64" t="s">
-        <v>590</v>
-      </c>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-    </row>
-    <row r="52" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="63">
+      <c r="B45" s="45" t="s">
+        <v>738</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>748</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>749</v>
+      </c>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+    </row>
+    <row r="46" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="44">
         <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
-      <c r="B52" s="64" t="s">
-        <v>722</v>
-      </c>
-      <c r="C52" s="65" t="s">
-        <v>592</v>
-      </c>
-      <c r="D52" s="64" t="s">
-        <v>590</v>
-      </c>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-    </row>
-    <row r="53" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="63">
+      <c r="B46" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>699</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>700</v>
+      </c>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+    </row>
+    <row r="47" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="44">
         <f t="shared" ca="1" si="2"/>
         <v>48</v>
       </c>
-      <c r="B53" s="64" t="s">
-        <v>723</v>
-      </c>
-      <c r="C53" s="65" t="s">
-        <v>593</v>
-      </c>
-      <c r="D53" s="64" t="s">
-        <v>590</v>
-      </c>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-    </row>
-    <row r="54" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63">
+      <c r="B47" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>573</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>582</v>
+      </c>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+    </row>
+    <row r="48" spans="1:26" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="44">
         <f t="shared" ca="1" si="2"/>
         <v>49</v>
       </c>
-      <c r="B54" s="64" t="s">
-        <v>742</v>
-      </c>
-      <c r="C54" s="65" t="s">
-        <v>740</v>
-      </c>
-      <c r="D54" s="64" t="s">
-        <v>741</v>
-      </c>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-    </row>
-    <row r="55" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="63">
-        <f t="shared" ca="1" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="B55" s="64" t="s">
-        <v>687</v>
-      </c>
-      <c r="C55" s="65" t="s">
+      <c r="B48" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" s="47"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="28"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+    </row>
+    <row r="49" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+    </row>
+    <row r="50" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="44">
+        <v>52</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="D50" s="45" t="s">
         <v>583</v>
       </c>
-      <c r="D55" s="64" t="s">
-        <v>595</v>
-      </c>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-    </row>
-    <row r="56" spans="1:26" s="20" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="63">
-        <f t="shared" ca="1" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="B56" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="C56" s="65" t="s">
-        <v>409</v>
-      </c>
-      <c r="D56" s="64" t="s">
-        <v>250</v>
-      </c>
-      <c r="E56" s="66"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="28"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
-      <c r="T56"/>
-      <c r="U56"/>
-      <c r="V56"/>
-      <c r="W56"/>
-      <c r="X56"/>
-      <c r="Y56"/>
-      <c r="Z56"/>
-    </row>
-    <row r="57" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="68" t="s">
-        <v>536</v>
-      </c>
-      <c r="B57" s="69"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="19"/>
-    </row>
-    <row r="58" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="63">
-        <v>52</v>
-      </c>
-      <c r="B58" s="64" t="s">
-        <v>690</v>
-      </c>
-      <c r="C58" s="65" t="s">
-        <v>554</v>
-      </c>
-      <c r="D58" s="64" t="s">
-        <v>596</v>
-      </c>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-    </row>
-    <row r="59" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="63">
-        <f t="shared" ref="A59:A67" ca="1" si="3">IF(OFFSET(A59,-1,0) ="",OFFSET(A59,-2,0)+1,OFFSET(A59,-1,0)+1 )</f>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+    </row>
+    <row r="51" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="44">
+        <f t="shared" ref="A51:A58" ca="1" si="3">IF(OFFSET(A51,-1,0) ="",OFFSET(A51,-2,0)+1,OFFSET(A51,-1,0)+1 )</f>
         <v>53</v>
       </c>
-      <c r="B59" s="64" t="s">
-        <v>743</v>
-      </c>
-      <c r="C59" s="65" t="s">
-        <v>599</v>
-      </c>
-      <c r="D59" s="64" t="s">
-        <v>611</v>
-      </c>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-    </row>
-    <row r="60" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="63">
+      <c r="B51" s="45" t="s">
+        <v>702</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>586</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>594</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+    </row>
+    <row r="52" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="44">
         <f t="shared" ca="1" si="3"/>
         <v>54</v>
       </c>
-      <c r="B60" s="64" t="s">
-        <v>668</v>
-      </c>
-      <c r="C60" s="65" t="s">
-        <v>601</v>
-      </c>
-      <c r="D60" s="64" t="s">
-        <v>602</v>
-      </c>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-    </row>
-    <row r="61" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="63">
+      <c r="B52" s="45" t="s">
+        <v>640</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>725</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>588</v>
+      </c>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+    </row>
+    <row r="53" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="44">
         <f t="shared" ca="1" si="3"/>
         <v>55</v>
       </c>
-      <c r="B61" s="64" t="s">
-        <v>669</v>
-      </c>
-      <c r="C61" s="65" t="s">
-        <v>603</v>
-      </c>
-      <c r="D61" s="64" t="s">
-        <v>602</v>
-      </c>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-    </row>
-    <row r="62" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="63">
+      <c r="B53" s="45" t="s">
+        <v>641</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>726</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>588</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+    </row>
+    <row r="54" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44">
         <f t="shared" ca="1" si="3"/>
         <v>56</v>
       </c>
-      <c r="B62" s="64" t="s">
-        <v>745</v>
-      </c>
-      <c r="C62" s="65" t="s">
-        <v>746</v>
-      </c>
-      <c r="D62" s="64" t="s">
-        <v>747</v>
-      </c>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-    </row>
-    <row r="63" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="63">
+      <c r="B54" s="45" t="s">
+        <v>704</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>705</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>706</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+    </row>
+    <row r="55" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="44">
         <f t="shared" ca="1" si="3"/>
         <v>57</v>
       </c>
-      <c r="B63" s="64" t="s">
+      <c r="B55" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C63" s="64" t="s">
-        <v>604</v>
-      </c>
-      <c r="D63" s="64" t="s">
-        <v>605</v>
-      </c>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-    </row>
-    <row r="64" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="63">
+      <c r="C55" s="45" t="s">
+        <v>589</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>590</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+    </row>
+    <row r="56" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="44">
         <f t="shared" ca="1" si="3"/>
         <v>58</v>
       </c>
-      <c r="B64" s="64" t="s">
-        <v>540</v>
-      </c>
-      <c r="C64" s="64" t="s">
-        <v>607</v>
-      </c>
-      <c r="D64" s="64" t="s">
-        <v>681</v>
-      </c>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-    </row>
-    <row r="65" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="63">
+      <c r="B56" s="45" t="s">
+        <v>735</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>736</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>737</v>
+      </c>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+    </row>
+    <row r="57" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="44">
         <f t="shared" ca="1" si="3"/>
         <v>59</v>
       </c>
-      <c r="B65" s="64" t="s">
-        <v>541</v>
-      </c>
-      <c r="C65" s="64" t="s">
-        <v>606</v>
-      </c>
-      <c r="D65" s="64" t="s">
-        <v>621</v>
-      </c>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-    </row>
-    <row r="66" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="63">
+      <c r="B57" s="45" t="s">
+        <v>703</v>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>591</v>
+      </c>
+      <c r="D57" s="45" t="s">
+        <v>592</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+    </row>
+    <row r="58" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="44">
         <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
-      <c r="B66" s="64" t="s">
-        <v>744</v>
-      </c>
-      <c r="C66" s="64" t="s">
-        <v>608</v>
-      </c>
-      <c r="D66" s="64" t="s">
-        <v>609</v>
-      </c>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-    </row>
-    <row r="67" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="63">
-        <f t="shared" ca="1" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="B67" s="64" t="s">
-        <v>666</v>
-      </c>
-      <c r="C67" s="65" t="s">
-        <v>556</v>
-      </c>
-      <c r="D67" s="64" t="s">
-        <v>610</v>
-      </c>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="68" t="s">
-        <v>542</v>
-      </c>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="W68" s="19"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="19"/>
-      <c r="Z68" s="19"/>
-    </row>
-    <row r="69" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="63">
+      <c r="B58" s="45" t="s">
+        <v>638</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>593</v>
+      </c>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+    </row>
+    <row r="59" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="49" t="s">
+        <v>540</v>
+      </c>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="19"/>
+    </row>
+    <row r="60" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="44">
         <v>62</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B60" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="C69" s="65" t="s">
-        <v>554</v>
-      </c>
-      <c r="D69" s="64" t="s">
-        <v>597</v>
-      </c>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-    </row>
-    <row r="70" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="63">
-        <f t="shared" ref="A70:A81" ca="1" si="4">IF(OFFSET(A70,-1,0) ="",OFFSET(A70,-2,0)+1,OFFSET(A70,-1,0)+1 )</f>
+      <c r="C60" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>584</v>
+      </c>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+    </row>
+    <row r="61" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="44">
+        <f t="shared" ref="A61:A71" ca="1" si="4">IF(OFFSET(A61,-1,0) ="",OFFSET(A61,-2,0)+1,OFFSET(A61,-1,0)+1 )</f>
         <v>63</v>
       </c>
-      <c r="B70" s="64" t="s">
-        <v>667</v>
-      </c>
-      <c r="C70" s="65" t="s">
-        <v>599</v>
-      </c>
-      <c r="D70" s="64" t="s">
-        <v>611</v>
-      </c>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-    </row>
-    <row r="71" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="63">
+      <c r="B61" s="45" t="s">
+        <v>639</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>586</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>594</v>
+      </c>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+    </row>
+    <row r="62" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="44">
         <f t="shared" ca="1" si="4"/>
         <v>64</v>
       </c>
-      <c r="B71" s="64" t="s">
-        <v>665</v>
-      </c>
-      <c r="C71" s="64" t="s">
-        <v>612</v>
-      </c>
-      <c r="D71" s="64" t="s">
+      <c r="B62" s="45" t="s">
+        <v>637</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>595</v>
+      </c>
+      <c r="D62" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
-    </row>
-    <row r="72" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="63">
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+    </row>
+    <row r="63" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="44">
         <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
-      <c r="B72" s="64" t="s">
-        <v>745</v>
-      </c>
-      <c r="C72" s="65" t="s">
-        <v>746</v>
-      </c>
-      <c r="D72" s="64" t="s">
-        <v>748</v>
-      </c>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
-    </row>
-    <row r="73" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="63">
+      <c r="B63" s="45" t="s">
+        <v>704</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>705</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>707</v>
+      </c>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+    </row>
+    <row r="64" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="44">
         <f t="shared" ca="1" si="4"/>
         <v>66</v>
       </c>
-      <c r="B73" s="64" t="s">
-        <v>668</v>
-      </c>
-      <c r="C73" s="65" t="s">
-        <v>627</v>
-      </c>
-      <c r="D73" s="64" t="s">
-        <v>613</v>
-      </c>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-    </row>
-    <row r="74" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="63">
+      <c r="B64" s="45" t="s">
+        <v>640</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>596</v>
+      </c>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+    </row>
+    <row r="65" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="44">
         <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
-      <c r="B74" s="64" t="s">
-        <v>669</v>
-      </c>
-      <c r="C74" s="65" t="s">
-        <v>628</v>
-      </c>
-      <c r="D74" s="64" t="s">
-        <v>613</v>
-      </c>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-    </row>
-    <row r="75" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="63">
+      <c r="B65" s="45" t="s">
+        <v>641</v>
+      </c>
+      <c r="C65" s="46" t="s">
+        <v>606</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>596</v>
+      </c>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+    </row>
+    <row r="66" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="44">
         <f t="shared" ca="1" si="4"/>
         <v>68</v>
       </c>
-      <c r="B75" s="64" t="s">
+      <c r="B66" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="C75" s="64" t="s">
-        <v>629</v>
-      </c>
-      <c r="D75" s="64" t="s">
-        <v>614</v>
-      </c>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-    </row>
-    <row r="76" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="63">
+      <c r="C66" s="45" t="s">
+        <v>607</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>597</v>
+      </c>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+    </row>
+    <row r="67" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="44">
         <f t="shared" ca="1" si="4"/>
         <v>69</v>
       </c>
-      <c r="B76" s="64" t="s">
-        <v>550</v>
-      </c>
-      <c r="C76" s="65" t="s">
-        <v>619</v>
-      </c>
-      <c r="D76" s="64" t="s">
-        <v>615</v>
-      </c>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-    </row>
-    <row r="77" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="63">
+      <c r="B67" s="45" t="s">
+        <v>544</v>
+      </c>
+      <c r="C67" s="46" t="s">
+        <v>599</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>598</v>
+      </c>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+    </row>
+    <row r="68" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="44">
         <f t="shared" ca="1" si="4"/>
         <v>70</v>
       </c>
-      <c r="B77" s="64" t="s">
-        <v>544</v>
-      </c>
-      <c r="C77" s="65" t="s">
-        <v>618</v>
-      </c>
-      <c r="D77" s="64" t="s">
-        <v>616</v>
-      </c>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="67"/>
-    </row>
-    <row r="78" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="63">
+      <c r="B68" s="45" t="s">
+        <v>733</v>
+      </c>
+      <c r="C68" s="46" t="s">
+        <v>731</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>732</v>
+      </c>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+    </row>
+    <row r="69" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="44">
         <f t="shared" ca="1" si="4"/>
         <v>71</v>
       </c>
-      <c r="B78" s="64" t="s">
-        <v>545</v>
-      </c>
-      <c r="C78" s="65" t="s">
-        <v>617</v>
-      </c>
-      <c r="D78" s="64" t="s">
-        <v>620</v>
-      </c>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
-    </row>
-    <row r="79" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="63">
+      <c r="B69" s="45" t="s">
+        <v>642</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>615</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>600</v>
+      </c>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+    </row>
+    <row r="70" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="44">
         <f t="shared" ca="1" si="4"/>
         <v>72</v>
       </c>
-      <c r="B79" s="64" t="s">
-        <v>670</v>
-      </c>
-      <c r="C79" s="64" t="s">
-        <v>641</v>
-      </c>
-      <c r="D79" s="64" t="s">
-        <v>622</v>
-      </c>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="67"/>
-    </row>
-    <row r="80" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="63">
+      <c r="B70" s="45" t="s">
+        <v>708</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="D70" s="45" t="s">
+        <v>710</v>
+      </c>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+    </row>
+    <row r="71" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="44">
         <f t="shared" ca="1" si="4"/>
         <v>73</v>
       </c>
-      <c r="B80" s="64" t="s">
-        <v>749</v>
-      </c>
-      <c r="C80" s="64" t="s">
-        <v>750</v>
-      </c>
-      <c r="D80" s="64" t="s">
-        <v>751</v>
-      </c>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="67"/>
-    </row>
-    <row r="81" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="63">
-        <f t="shared" ca="1" si="4"/>
+      <c r="B71" s="45" t="s">
+        <v>638</v>
+      </c>
+      <c r="C71" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>601</v>
+      </c>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+    </row>
+    <row r="72" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="52"/>
+      <c r="B72" s="75" t="s">
+        <v>541</v>
+      </c>
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="75"/>
+      <c r="I72" s="76"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="19"/>
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="19"/>
+      <c r="Z72" s="19"/>
+    </row>
+    <row r="73" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="44">
+        <f ca="1">IF(OFFSET(A73,-1,0) ="",OFFSET(A73,-2,0)+1,OFFSET(A73,-1,0)+1 )</f>
         <v>74</v>
       </c>
-      <c r="B81" s="64" t="s">
-        <v>666</v>
-      </c>
-      <c r="C81" s="65" t="s">
-        <v>556</v>
-      </c>
-      <c r="D81" s="64" t="s">
-        <v>623</v>
-      </c>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="67"/>
-    </row>
-    <row r="82" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="71"/>
-      <c r="B82" s="72" t="s">
-        <v>543</v>
-      </c>
-      <c r="C82" s="72"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="72"/>
-      <c r="I82" s="73"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="19"/>
-      <c r="S82" s="19"/>
-      <c r="T82" s="19"/>
-      <c r="U82" s="19"/>
-      <c r="V82" s="19"/>
-      <c r="W82" s="19"/>
-      <c r="X82" s="19"/>
-      <c r="Y82" s="19"/>
-      <c r="Z82" s="19"/>
-    </row>
-    <row r="83" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="63">
-        <f ca="1">IF(OFFSET(A83,-1,0) ="",OFFSET(A83,-2,0)+1,OFFSET(A83,-1,0)+1 )</f>
+      <c r="B73" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="C73" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="D73" s="45" t="s">
+        <v>585</v>
+      </c>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+    </row>
+    <row r="74" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="44">
+        <f t="shared" ref="A74:A86" ca="1" si="5">IF(OFFSET(A74,-1,0) ="",OFFSET(A74,-2,0)+1,OFFSET(A74,-1,0)+1 )</f>
         <v>75</v>
       </c>
-      <c r="B83" s="64" t="s">
-        <v>690</v>
-      </c>
-      <c r="C83" s="65" t="s">
-        <v>554</v>
-      </c>
-      <c r="D83" s="64" t="s">
-        <v>598</v>
-      </c>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-    </row>
-    <row r="84" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="63">
-        <f t="shared" ref="A84:A97" ca="1" si="5">IF(OFFSET(A84,-1,0) ="",OFFSET(A84,-2,0)+1,OFFSET(A84,-1,0)+1 )</f>
+      <c r="B74" s="45" t="s">
+        <v>639</v>
+      </c>
+      <c r="C74" s="46" t="s">
+        <v>586</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>587</v>
+      </c>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+    </row>
+    <row r="75" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="44">
+        <f t="shared" ca="1" si="5"/>
         <v>76</v>
       </c>
-      <c r="B84" s="64" t="s">
-        <v>667</v>
-      </c>
-      <c r="C84" s="65" t="s">
-        <v>599</v>
-      </c>
-      <c r="D84" s="64" t="s">
-        <v>600</v>
-      </c>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="67"/>
-    </row>
-    <row r="85" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="63">
+      <c r="B75" s="45" t="s">
+        <v>637</v>
+      </c>
+      <c r="C75" s="45" t="s">
+        <v>616</v>
+      </c>
+      <c r="D75" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+    </row>
+    <row r="76" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="44">
         <f t="shared" ca="1" si="5"/>
         <v>77</v>
       </c>
-      <c r="B85" s="64" t="s">
-        <v>665</v>
-      </c>
-      <c r="C85" s="64" t="s">
-        <v>642</v>
-      </c>
-      <c r="D85" s="64" t="s">
+      <c r="B76" s="45" t="s">
+        <v>643</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>617</v>
+      </c>
+      <c r="D76" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="67"/>
-    </row>
-    <row r="86" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="63">
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+    </row>
+    <row r="77" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="44">
         <f t="shared" ca="1" si="5"/>
         <v>78</v>
       </c>
-      <c r="B86" s="64" t="s">
-        <v>671</v>
-      </c>
-      <c r="C86" s="64" t="s">
-        <v>643</v>
-      </c>
-      <c r="D86" s="64" t="s">
+      <c r="B77" s="45" t="s">
+        <v>644</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>618</v>
+      </c>
+      <c r="D77" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="67"/>
-    </row>
-    <row r="87" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="63">
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+    </row>
+    <row r="78" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="44">
         <f t="shared" ca="1" si="5"/>
         <v>79</v>
       </c>
-      <c r="B87" s="64" t="s">
-        <v>672</v>
-      </c>
-      <c r="C87" s="64" t="s">
-        <v>644</v>
-      </c>
-      <c r="D87" s="64" t="s">
-        <v>484</v>
-      </c>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="67"/>
-    </row>
-    <row r="88" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="63">
+      <c r="B78" s="45" t="s">
+        <v>704</v>
+      </c>
+      <c r="C78" s="46" t="s">
+        <v>705</v>
+      </c>
+      <c r="D78" s="45" t="s">
+        <v>714</v>
+      </c>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+    </row>
+    <row r="79" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="44">
         <f t="shared" ca="1" si="5"/>
         <v>80</v>
       </c>
-      <c r="B88" s="64" t="s">
-        <v>745</v>
-      </c>
-      <c r="C88" s="65" t="s">
-        <v>746</v>
-      </c>
-      <c r="D88" s="64" t="s">
-        <v>755</v>
-      </c>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="67"/>
-    </row>
-    <row r="89" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="63">
+      <c r="B79" s="45" t="s">
+        <v>537</v>
+      </c>
+      <c r="C79" s="46" t="s">
+        <v>602</v>
+      </c>
+      <c r="D79" s="45" t="s">
+        <v>604</v>
+      </c>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+    </row>
+    <row r="80" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="44">
         <f t="shared" ca="1" si="5"/>
         <v>81</v>
       </c>
-      <c r="B89" s="64" t="s">
-        <v>537</v>
-      </c>
-      <c r="C89" s="65" t="s">
-        <v>624</v>
-      </c>
-      <c r="D89" s="64" t="s">
-        <v>626</v>
-      </c>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="67"/>
-      <c r="H89" s="67"/>
-      <c r="I89" s="67"/>
-    </row>
-    <row r="90" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="63">
+      <c r="B80" s="45" t="s">
+        <v>538</v>
+      </c>
+      <c r="C80" s="46" t="s">
+        <v>603</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>604</v>
+      </c>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+    </row>
+    <row r="81" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="44">
         <f t="shared" ca="1" si="5"/>
         <v>82</v>
       </c>
-      <c r="B90" s="64" t="s">
-        <v>538</v>
-      </c>
-      <c r="C90" s="65" t="s">
-        <v>625</v>
-      </c>
-      <c r="D90" s="64" t="s">
-        <v>626</v>
-      </c>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67"/>
-    </row>
-    <row r="91" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="63">
+      <c r="B81" s="45" t="s">
+        <v>539</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>608</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>609</v>
+      </c>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+    </row>
+    <row r="82" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="44">
         <f t="shared" ca="1" si="5"/>
         <v>83</v>
       </c>
-      <c r="B91" s="64" t="s">
-        <v>539</v>
-      </c>
-      <c r="C91" s="64" t="s">
-        <v>630</v>
-      </c>
-      <c r="D91" s="64" t="s">
-        <v>631</v>
-      </c>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="67"/>
-      <c r="I91" s="67"/>
-    </row>
-    <row r="92" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="63">
+      <c r="B82" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="C82" s="46" t="s">
+        <v>610</v>
+      </c>
+      <c r="D82" s="45" t="s">
+        <v>611</v>
+      </c>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+    </row>
+    <row r="83" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="44">
         <f t="shared" ca="1" si="5"/>
         <v>84</v>
       </c>
-      <c r="B92" s="64" t="s">
-        <v>549</v>
-      </c>
-      <c r="C92" s="65" t="s">
-        <v>632</v>
-      </c>
-      <c r="D92" s="64" t="s">
-        <v>633</v>
-      </c>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="67"/>
-    </row>
-    <row r="93" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="63">
+      <c r="B83" s="45" t="s">
+        <v>734</v>
+      </c>
+      <c r="C83" s="46" t="s">
+        <v>729</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>730</v>
+      </c>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+    </row>
+    <row r="84" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="44">
         <f t="shared" ca="1" si="5"/>
         <v>85</v>
       </c>
-      <c r="B93" s="64" t="s">
-        <v>546</v>
-      </c>
-      <c r="C93" s="65" t="s">
-        <v>634</v>
-      </c>
-      <c r="D93" s="64" t="s">
-        <v>636</v>
-      </c>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="67"/>
-      <c r="I93" s="67"/>
-    </row>
-    <row r="94" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="63">
+      <c r="B84" s="45" t="s">
+        <v>542</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>612</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>613</v>
+      </c>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+    </row>
+    <row r="85" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="44">
         <f t="shared" ca="1" si="5"/>
         <v>86</v>
       </c>
-      <c r="B94" s="64" t="s">
-        <v>547</v>
-      </c>
-      <c r="C94" s="65" t="s">
-        <v>635</v>
-      </c>
-      <c r="D94" s="64" t="s">
-        <v>637</v>
-      </c>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="67"/>
-    </row>
-    <row r="95" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="63">
+      <c r="B85" s="45" t="s">
+        <v>711</v>
+      </c>
+      <c r="C85" s="45" t="s">
+        <v>712</v>
+      </c>
+      <c r="D85" s="45" t="s">
+        <v>713</v>
+      </c>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+    </row>
+    <row r="86" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="44">
         <f t="shared" ca="1" si="5"/>
         <v>87</v>
       </c>
-      <c r="B95" s="64" t="s">
-        <v>548</v>
-      </c>
-      <c r="C95" s="64" t="s">
+      <c r="B86" s="45" t="s">
         <v>638</v>
       </c>
-      <c r="D95" s="64" t="s">
-        <v>639</v>
-      </c>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="67"/>
-      <c r="I95" s="67"/>
-    </row>
-    <row r="96" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>88</v>
-      </c>
-      <c r="B96" s="64" t="s">
-        <v>752</v>
-      </c>
-      <c r="C96" s="64" t="s">
-        <v>753</v>
-      </c>
-      <c r="D96" s="64" t="s">
-        <v>754</v>
-      </c>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="67"/>
-    </row>
-    <row r="97" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="63">
-        <f t="shared" ca="1" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="B97" s="64" t="s">
-        <v>666</v>
-      </c>
-      <c r="C97" s="65" t="s">
-        <v>556</v>
-      </c>
-      <c r="D97" s="64" t="s">
-        <v>640</v>
-      </c>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="67"/>
-    </row>
-    <row r="98" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="71"/>
-      <c r="B98" s="72" t="s">
-        <v>551</v>
-      </c>
-      <c r="C98" s="72"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="72"/>
-      <c r="H98" s="72"/>
-      <c r="I98" s="73"/>
-      <c r="J98" s="22"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19"/>
-      <c r="M98" s="19"/>
-      <c r="N98" s="19"/>
-      <c r="O98" s="19"/>
-      <c r="P98" s="19"/>
-      <c r="Q98" s="19"/>
-      <c r="R98" s="19"/>
-      <c r="S98" s="19"/>
-      <c r="T98" s="19"/>
-      <c r="U98" s="19"/>
-      <c r="V98" s="19"/>
-      <c r="W98" s="19"/>
-      <c r="X98" s="19"/>
-      <c r="Y98" s="19"/>
-      <c r="Z98" s="19"/>
-    </row>
-    <row r="99" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="63">
+      <c r="C86" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>614</v>
+      </c>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+    </row>
+    <row r="87" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="52"/>
+      <c r="B87" s="75" t="s">
+        <v>545</v>
+      </c>
+      <c r="C87" s="75"/>
+      <c r="D87" s="75"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="75"/>
+      <c r="H87" s="75"/>
+      <c r="I87" s="76"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="19"/>
+      <c r="T87" s="19"/>
+      <c r="U87" s="19"/>
+      <c r="V87" s="19"/>
+      <c r="W87" s="19"/>
+      <c r="X87" s="19"/>
+      <c r="Y87" s="19"/>
+      <c r="Z87" s="19"/>
+    </row>
+    <row r="88" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="44">
         <v>90</v>
       </c>
-      <c r="B99" s="75" t="s">
-        <v>675</v>
-      </c>
-      <c r="C99" s="65" t="s">
+      <c r="B88" s="53" t="s">
+        <v>647</v>
+      </c>
+      <c r="C88" s="46" t="s">
+        <v>619</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>620</v>
+      </c>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+    </row>
+    <row r="89" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="52"/>
+      <c r="B89" s="75" t="s">
+        <v>547</v>
+      </c>
+      <c r="C89" s="75"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="75"/>
+      <c r="F89" s="75"/>
+      <c r="G89" s="75"/>
+      <c r="H89" s="75"/>
+      <c r="I89" s="76"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="19"/>
+      <c r="T89" s="19"/>
+      <c r="U89" s="19"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="19"/>
+      <c r="X89" s="19"/>
+      <c r="Y89" s="19"/>
+      <c r="Z89" s="19"/>
+    </row>
+    <row r="90" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="44">
+        <f ca="1">IF(OFFSET(A90,-1,0) ="",OFFSET(A90,-2,0)+1,OFFSET(A90,-1,0)+1 )</f>
+        <v>91</v>
+      </c>
+      <c r="B90" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="C90" s="46" t="s">
+        <v>622</v>
+      </c>
+      <c r="D90" s="45" t="s">
+        <v>648</v>
+      </c>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+    </row>
+    <row r="91" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="44">
+        <f t="shared" ref="A91:A94" ca="1" si="6">IF(OFFSET(A91,-1,0) ="",OFFSET(A91,-2,0)+1,OFFSET(A91,-1,0)+1 )</f>
+        <v>92</v>
+      </c>
+      <c r="B91" s="45" t="s">
         <v>645</v>
       </c>
-      <c r="D99" s="64" t="s">
-        <v>646</v>
-      </c>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="67"/>
-    </row>
-    <row r="100" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="71"/>
-      <c r="B100" s="72" t="s">
-        <v>553</v>
-      </c>
-      <c r="C100" s="72"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="72"/>
-      <c r="H100" s="72"/>
-      <c r="I100" s="73"/>
-      <c r="J100" s="22"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-      <c r="M100" s="19"/>
-      <c r="N100" s="19"/>
-      <c r="O100" s="19"/>
-      <c r="P100" s="19"/>
-      <c r="Q100" s="19"/>
-      <c r="R100" s="19"/>
-      <c r="S100" s="19"/>
-      <c r="T100" s="19"/>
-      <c r="U100" s="19"/>
-      <c r="V100" s="19"/>
-      <c r="W100" s="19"/>
-      <c r="X100" s="19"/>
-      <c r="Y100" s="19"/>
-      <c r="Z100" s="19"/>
-    </row>
-    <row r="101" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="63">
-        <f ca="1">IF(OFFSET(A101,-1,0) ="",OFFSET(A101,-2,0)+1,OFFSET(A101,-1,0)+1 )</f>
-        <v>91</v>
-      </c>
-      <c r="B101" s="64" t="s">
-        <v>675</v>
-      </c>
-      <c r="C101" s="65" t="s">
-        <v>648</v>
-      </c>
-      <c r="D101" s="64" t="s">
-        <v>676</v>
-      </c>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="67"/>
-      <c r="I101" s="67"/>
-    </row>
-    <row r="102" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="63">
-        <f t="shared" ref="A102:A105" ca="1" si="6">IF(OFFSET(A102,-1,0) ="",OFFSET(A102,-2,0)+1,OFFSET(A102,-1,0)+1 )</f>
-        <v>92</v>
-      </c>
-      <c r="B102" s="64" t="s">
-        <v>673</v>
-      </c>
-      <c r="C102" s="64" t="s">
-        <v>649</v>
-      </c>
-      <c r="D102" s="64" t="s">
-        <v>560</v>
-      </c>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="67"/>
-    </row>
-    <row r="103" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="63">
+      <c r="C91" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="D91" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+    </row>
+    <row r="92" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="44">
         <f t="shared" ca="1" si="6"/>
         <v>93</v>
       </c>
-      <c r="B103" s="64" t="s">
-        <v>677</v>
-      </c>
-      <c r="C103" s="64" t="s">
-        <v>650</v>
-      </c>
-      <c r="D103" s="64" t="s">
-        <v>651</v>
-      </c>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="67"/>
-      <c r="H103" s="67"/>
-      <c r="I103" s="67"/>
-    </row>
-    <row r="104" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="63">
+      <c r="B92" s="45" t="s">
+        <v>649</v>
+      </c>
+      <c r="C92" s="45" t="s">
+        <v>624</v>
+      </c>
+      <c r="D92" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+    </row>
+    <row r="93" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="44">
         <f t="shared" ca="1" si="6"/>
         <v>94</v>
       </c>
-      <c r="B104" s="64" t="s">
-        <v>678</v>
-      </c>
-      <c r="C104" s="64" t="s">
-        <v>674</v>
-      </c>
-      <c r="D104" s="64" t="s">
-        <v>651</v>
-      </c>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="67"/>
-    </row>
-    <row r="105" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="63">
+      <c r="B93" s="45" t="s">
+        <v>650</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>646</v>
+      </c>
+      <c r="D93" s="45" t="s">
+        <v>625</v>
+      </c>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+    </row>
+    <row r="94" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="44">
         <f t="shared" ca="1" si="6"/>
         <v>95</v>
       </c>
-      <c r="B105" s="64" t="s">
-        <v>679</v>
-      </c>
-      <c r="C105" s="64" t="s">
+      <c r="B94" s="45" t="s">
+        <v>651</v>
+      </c>
+      <c r="C94" s="45" t="s">
+        <v>626</v>
+      </c>
+      <c r="D94" s="45" t="s">
         <v>652</v>
       </c>
-      <c r="D105" s="64" t="s">
-        <v>680</v>
-      </c>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="67"/>
-    </row>
-    <row r="106" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="57" t="s">
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="48"/>
+    </row>
+    <row r="95" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="B106" s="57"/>
-      <c r="C106" s="57"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="74"/>
-      <c r="J106" s="21"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
-      <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
-      <c r="U106" s="2"/>
-      <c r="V106" s="2"/>
-      <c r="W106" s="2"/>
-      <c r="X106" s="2"/>
-      <c r="Y106" s="2"/>
-      <c r="Z106" s="2"/>
-    </row>
-    <row r="107" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="71"/>
-      <c r="B107" s="72" t="s">
-        <v>552</v>
-      </c>
-      <c r="C107" s="72"/>
-      <c r="D107" s="72"/>
-      <c r="E107" s="72"/>
-      <c r="F107" s="72"/>
-      <c r="G107" s="72"/>
-      <c r="H107" s="72"/>
-      <c r="I107" s="73"/>
-      <c r="J107" s="22"/>
-      <c r="K107" s="19"/>
-      <c r="L107" s="19"/>
-      <c r="M107" s="19"/>
-      <c r="N107" s="19"/>
-      <c r="O107" s="19"/>
-      <c r="P107" s="19"/>
-      <c r="Q107" s="19"/>
-      <c r="R107" s="19"/>
-      <c r="S107" s="19"/>
-      <c r="T107" s="19"/>
-      <c r="U107" s="19"/>
-      <c r="V107" s="19"/>
-      <c r="W107" s="19"/>
-      <c r="X107" s="19"/>
-      <c r="Y107" s="19"/>
-      <c r="Z107" s="19"/>
-    </row>
-    <row r="108" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="63">
+      <c r="B95" s="69"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="69"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="77"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
+    </row>
+    <row r="96" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="52"/>
+      <c r="B96" s="75" t="s">
+        <v>546</v>
+      </c>
+      <c r="C96" s="75"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="75"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="75"/>
+      <c r="I96" s="76"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="19"/>
+      <c r="T96" s="19"/>
+      <c r="U96" s="19"/>
+      <c r="V96" s="19"/>
+      <c r="W96" s="19"/>
+      <c r="X96" s="19"/>
+      <c r="Y96" s="19"/>
+      <c r="Z96" s="19"/>
+    </row>
+    <row r="97" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="44">
         <v>96</v>
       </c>
-      <c r="B108" s="64" t="s">
-        <v>692</v>
-      </c>
-      <c r="C108" s="65" t="s">
+      <c r="B97" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="C97" s="46" t="s">
+        <v>656</v>
+      </c>
+      <c r="D97" s="45" t="s">
+        <v>715</v>
+      </c>
+      <c r="E97" s="47"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="48"/>
+      <c r="J97" s="23"/>
+    </row>
+    <row r="98" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="44">
+        <f t="shared" ref="A98:A103" ca="1" si="7">IF(OFFSET(A98,-1,0) ="",OFFSET(A98,-2,0)+1,OFFSET(A98,-1,0)+1 )</f>
+        <v>97</v>
+      </c>
+      <c r="B98" s="45" t="s">
+        <v>663</v>
+      </c>
+      <c r="C98" s="46" t="s">
         <v>653</v>
       </c>
-      <c r="D108" s="64" t="s">
-        <v>685</v>
-      </c>
-      <c r="E108" s="66"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="67"/>
-      <c r="H108" s="67"/>
-      <c r="I108" s="67"/>
-      <c r="J108" s="23"/>
-    </row>
-    <row r="109" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="63">
-        <f t="shared" ref="A109:A115" ca="1" si="7">IF(OFFSET(A109,-1,0) ="",OFFSET(A109,-2,0)+1,OFFSET(A109,-1,0)+1 )</f>
-        <v>97</v>
-      </c>
-      <c r="B109" s="64" t="s">
-        <v>693</v>
-      </c>
-      <c r="C109" s="65" t="s">
-        <v>686</v>
-      </c>
-      <c r="D109" s="64" t="s">
-        <v>756</v>
-      </c>
-      <c r="E109" s="66"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="67"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="67"/>
-      <c r="J109" s="23"/>
-    </row>
-    <row r="110" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="63">
+      <c r="D98" s="45" t="s">
+        <v>655</v>
+      </c>
+      <c r="E98" s="47"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="48"/>
+      <c r="J98" s="23"/>
+    </row>
+    <row r="99" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="44">
         <f t="shared" ca="1" si="7"/>
         <v>98</v>
       </c>
-      <c r="B110" s="64" t="s">
-        <v>694</v>
-      </c>
-      <c r="C110" s="65" t="s">
-        <v>682</v>
-      </c>
-      <c r="D110" s="64" t="s">
-        <v>684</v>
-      </c>
-      <c r="E110" s="66"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="67"/>
-      <c r="J110" s="23"/>
-    </row>
-    <row r="111" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="63">
+      <c r="B99" s="45" t="s">
+        <v>664</v>
+      </c>
+      <c r="C99" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="D99" s="45" t="s">
+        <v>661</v>
+      </c>
+      <c r="E99" s="47"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="48"/>
+      <c r="J99" s="23"/>
+    </row>
+    <row r="100" spans="1:26" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="44">
         <f t="shared" ca="1" si="7"/>
         <v>99</v>
       </c>
-      <c r="B111" s="64" t="s">
-        <v>695</v>
-      </c>
-      <c r="C111" s="65" t="s">
-        <v>683</v>
-      </c>
-      <c r="D111" s="64" t="s">
-        <v>691</v>
-      </c>
-      <c r="E111" s="66"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="67"/>
-      <c r="H111" s="67"/>
-      <c r="I111" s="67"/>
-      <c r="J111" s="23"/>
-    </row>
-    <row r="112" spans="1:26" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="63">
+      <c r="B100" s="45" t="s">
+        <v>718</v>
+      </c>
+      <c r="C100" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="D100" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="E100" s="47"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="48"/>
+      <c r="J100" s="23"/>
+    </row>
+    <row r="101" spans="1:26" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="44">
         <f t="shared" ca="1" si="7"/>
         <v>100</v>
       </c>
-      <c r="B112" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="C112" s="65" t="s">
-        <v>763</v>
-      </c>
-      <c r="D112" s="64" t="s">
-        <v>757</v>
-      </c>
-      <c r="E112" s="66"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="67"/>
-      <c r="H112" s="67"/>
-      <c r="I112" s="67"/>
-      <c r="J112" s="23"/>
-    </row>
-    <row r="113" spans="1:26" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="63">
+      <c r="B101" s="45" t="s">
+        <v>717</v>
+      </c>
+      <c r="C101" s="46" t="s">
+        <v>723</v>
+      </c>
+      <c r="D101" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="E101" s="47"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="48"/>
+      <c r="J101" s="23"/>
+    </row>
+    <row r="102" spans="1:26" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="54">
         <f t="shared" ca="1" si="7"/>
         <v>101</v>
       </c>
-      <c r="B113" s="64" t="s">
-        <v>758</v>
-      </c>
-      <c r="C113" s="65" t="s">
-        <v>764</v>
-      </c>
-      <c r="D113" s="64" t="s">
-        <v>765</v>
-      </c>
-      <c r="E113" s="66"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="23"/>
-    </row>
-    <row r="114" spans="1:26" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="76">
+      <c r="B102" s="45" t="s">
+        <v>721</v>
+      </c>
+      <c r="C102" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="D102" s="45" t="s">
+        <v>720</v>
+      </c>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="6"/>
+    </row>
+    <row r="103" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="44">
         <f t="shared" ca="1" si="7"/>
         <v>102</v>
       </c>
-      <c r="B114" s="64" t="s">
-        <v>762</v>
-      </c>
-      <c r="C114" s="65" t="s">
-        <v>760</v>
-      </c>
-      <c r="D114" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="E114" s="66"/>
-      <c r="F114" s="66"/>
-      <c r="G114" s="66"/>
-      <c r="H114" s="66"/>
-      <c r="I114" s="66"/>
-      <c r="J114" s="6"/>
-    </row>
-    <row r="115" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="63">
-        <f t="shared" ca="1" si="7"/>
+      <c r="B103" s="45" t="s">
+        <v>665</v>
+      </c>
+      <c r="C103" s="46" t="s">
+        <v>727</v>
+      </c>
+      <c r="D103" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="E103" s="47"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="48"/>
+      <c r="J103" s="23"/>
+    </row>
+    <row r="104" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="44">
+        <f ca="1">IF(OFFSET(A104,-1,0) ="",OFFSET(A104,-2,0)+1,OFFSET(A104,-1,0)+1 )</f>
         <v>103</v>
       </c>
-      <c r="B115" s="64" t="s">
-        <v>696</v>
-      </c>
-      <c r="C115" s="65" t="s">
-        <v>654</v>
-      </c>
-      <c r="D115" s="64" t="s">
-        <v>655</v>
-      </c>
-      <c r="E115" s="66"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="67"/>
-      <c r="H115" s="67"/>
-      <c r="I115" s="67"/>
-      <c r="J115" s="23"/>
-    </row>
-    <row r="116" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="63">
-        <f ca="1">IF(OFFSET(A116,-1,0) ="",OFFSET(A116,-2,0)+1,OFFSET(A116,-1,0)+1 )</f>
+      <c r="B104" s="45" t="s">
+        <v>666</v>
+      </c>
+      <c r="C104" s="45" t="s">
+        <v>728</v>
+      </c>
+      <c r="D104" s="45" t="s">
+        <v>621</v>
+      </c>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="48"/>
+    </row>
+    <row r="105" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="52"/>
+      <c r="B105" s="75" t="s">
+        <v>628</v>
+      </c>
+      <c r="C105" s="75"/>
+      <c r="D105" s="75"/>
+      <c r="E105" s="75"/>
+      <c r="F105" s="75"/>
+      <c r="G105" s="75"/>
+      <c r="H105" s="75"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="19"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="19"/>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="19"/>
+      <c r="T105" s="19"/>
+      <c r="U105" s="19"/>
+      <c r="V105" s="19"/>
+      <c r="W105" s="19"/>
+      <c r="X105" s="19"/>
+      <c r="Y105" s="19"/>
+      <c r="Z105" s="19"/>
+    </row>
+    <row r="106" spans="1:26" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="44">
+        <f ca="1">IF(OFFSET(A106,-1,0) ="",OFFSET(A106,-2,0)+1,OFFSET(A106,-1,0)+1 )</f>
         <v>104</v>
       </c>
-      <c r="B116" s="64" t="s">
-        <v>697</v>
-      </c>
-      <c r="C116" s="75" t="s">
-        <v>348</v>
-      </c>
-      <c r="D116" s="64" t="s">
-        <v>647</v>
-      </c>
-      <c r="E116" s="67"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="67"/>
-      <c r="H116" s="67"/>
-      <c r="I116" s="67"/>
-    </row>
-    <row r="117" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="71"/>
-      <c r="B117" s="72" t="s">
-        <v>656</v>
-      </c>
-      <c r="C117" s="72"/>
-      <c r="D117" s="72"/>
-      <c r="E117" s="72"/>
-      <c r="F117" s="72"/>
-      <c r="G117" s="72"/>
-      <c r="H117" s="72"/>
-      <c r="I117" s="73"/>
-      <c r="J117" s="22"/>
-      <c r="K117" s="19"/>
-      <c r="L117" s="19"/>
-      <c r="M117" s="19"/>
-      <c r="N117" s="19"/>
-      <c r="O117" s="19"/>
-      <c r="P117" s="19"/>
-      <c r="Q117" s="19"/>
-      <c r="R117" s="19"/>
-      <c r="S117" s="19"/>
-      <c r="T117" s="19"/>
-      <c r="U117" s="19"/>
-      <c r="V117" s="19"/>
-      <c r="W117" s="19"/>
-      <c r="X117" s="19"/>
-      <c r="Y117" s="19"/>
-      <c r="Z117" s="19"/>
-    </row>
-    <row r="118" spans="1:26" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="63">
-        <f ca="1">IF(OFFSET(A118,-1,0) ="",OFFSET(A118,-2,0)+1,OFFSET(A118,-1,0)+1 )</f>
+      <c r="B106" s="45" t="s">
+        <v>629</v>
+      </c>
+      <c r="C106" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="D106" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="E106" s="47"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="48"/>
+      <c r="J106" s="23"/>
+    </row>
+    <row r="107" spans="1:26" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="44">
+        <f ca="1">IF(OFFSET(A107,-1,0) ="",OFFSET(A107,-2,0)+1,OFFSET(A107,-1,0)+1 )</f>
         <v>105</v>
       </c>
-      <c r="B118" s="64" t="s">
-        <v>657</v>
-      </c>
-      <c r="C118" s="65" t="s">
-        <v>659</v>
-      </c>
-      <c r="D118" s="64" t="s">
-        <v>663</v>
-      </c>
-      <c r="E118" s="66"/>
-      <c r="F118" s="67"/>
-      <c r="G118" s="67"/>
-      <c r="H118" s="67"/>
-      <c r="I118" s="67"/>
-      <c r="J118" s="23"/>
-    </row>
-    <row r="119" spans="1:26" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="63">
-        <f ca="1">IF(OFFSET(A119,-1,0) ="",OFFSET(A119,-2,0)+1,OFFSET(A119,-1,0)+1 )</f>
+      <c r="B107" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="C107" s="46" t="s">
+        <v>632</v>
+      </c>
+      <c r="D107" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="48"/>
+    </row>
+    <row r="108" spans="1:26" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="44">
+        <f ca="1">IF(OFFSET(A108,-1,0) ="",OFFSET(A108,-2,0)+1,OFFSET(A108,-1,0)+1 )</f>
         <v>106</v>
       </c>
-      <c r="B119" s="64" t="s">
-        <v>658</v>
-      </c>
-      <c r="C119" s="65" t="s">
-        <v>660</v>
-      </c>
-      <c r="D119" s="64" t="s">
-        <v>663</v>
-      </c>
-      <c r="E119" s="67"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="67"/>
-      <c r="H119" s="67"/>
-      <c r="I119" s="67"/>
-    </row>
-    <row r="120" spans="1:26" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="63">
-        <f ca="1">IF(OFFSET(A120,-1,0) ="",OFFSET(A120,-2,0)+1,OFFSET(A120,-1,0)+1 )</f>
-        <v>107</v>
-      </c>
-      <c r="B120" s="64" t="s">
-        <v>661</v>
-      </c>
-      <c r="C120" s="65" t="s">
-        <v>662</v>
-      </c>
-      <c r="D120" s="64" t="s">
-        <v>664</v>
-      </c>
-      <c r="E120" s="67"/>
-      <c r="F120" s="67"/>
-      <c r="G120" s="67"/>
-      <c r="H120" s="67"/>
-      <c r="I120" s="67"/>
+      <c r="B108" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="C108" s="46" t="s">
+        <v>634</v>
+      </c>
+      <c r="D108" s="45" t="s">
+        <v>636</v>
+      </c>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="B117:I117"/>
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="B98:I98"/>
-    <mergeCell ref="A106:I106"/>
-    <mergeCell ref="B107:I107"/>
-    <mergeCell ref="B100:I100"/>
+    <mergeCell ref="B105:I105"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="A95:I95"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="B89:I89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD0789B-F7AC-4C1F-998A-22C45DC17118}">
+  <dimension ref="A1:Z8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="10" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+    </row>
+    <row r="2" spans="1:26" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>764</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>762</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="44">
+        <v>2</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>763</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>757</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>752</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>754</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>753</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>756</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>766</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>758</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>768</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>769</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>767</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>759</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>761</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>